--- a/trunk/Delivers/Test Case.xlsx
+++ b/trunk/Delivers/Test Case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8010" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8010" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" state="hidden" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Create register'!$A$2:$C$63</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Create user'!$A$2:$C$34</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Create_Contest!$A$2:$C$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Create_Contest!$A$2:$H$40</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Create_question!$A$2:$C$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Delete Contest'!$A$2:$C$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Delete_Question!$A$2:$C$36</definedName>
@@ -158,9 +158,6 @@
   </si>
   <si>
     <t>OK</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
   <si>
     <t>Nút Save được click</t>
@@ -512,6 +509,9 @@
   </si>
   <si>
     <t>AnhPV</t>
+  </si>
+  <si>
+    <t>R-OK</t>
   </si>
 </sst>
 </file>
@@ -1270,6 +1270,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1303,15 +1315,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="180"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1320,9 +1323,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1738,7 +1738,7 @@
       <c r="AT2" s="4"/>
     </row>
     <row r="3" spans="1:46">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="65" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="15"/>
@@ -1788,7 +1788,7 @@
       <c r="AT3" s="7"/>
     </row>
     <row r="4" spans="1:46">
-      <c r="A4" s="62"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="16"/>
       <c r="C4" s="13"/>
       <c r="D4" s="8"/>
@@ -1836,7 +1836,7 @@
       <c r="AT4" s="9"/>
     </row>
     <row r="5" spans="1:46">
-      <c r="A5" s="62"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="16"/>
       <c r="C5" s="13"/>
       <c r="D5" s="8"/>
@@ -1884,7 +1884,7 @@
       <c r="AT5" s="9"/>
     </row>
     <row r="6" spans="1:46">
-      <c r="A6" s="62"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="16"/>
       <c r="C6" s="13"/>
       <c r="D6" s="8"/>
@@ -1932,7 +1932,7 @@
       <c r="AT6" s="9"/>
     </row>
     <row r="7" spans="1:46">
-      <c r="A7" s="62"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="16"/>
       <c r="C7" s="13"/>
       <c r="D7" s="8"/>
@@ -1980,7 +1980,7 @@
       <c r="AT7" s="9"/>
     </row>
     <row r="8" spans="1:46">
-      <c r="A8" s="62"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="16"/>
       <c r="C8" s="13"/>
       <c r="D8" s="8"/>
@@ -2028,7 +2028,7 @@
       <c r="AT8" s="9"/>
     </row>
     <row r="9" spans="1:46">
-      <c r="A9" s="62"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="16"/>
       <c r="C9" s="13"/>
       <c r="D9" s="8"/>
@@ -2076,7 +2076,7 @@
       <c r="AT9" s="9"/>
     </row>
     <row r="10" spans="1:46">
-      <c r="A10" s="62"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="16"/>
       <c r="C10" s="13"/>
       <c r="D10" s="8"/>
@@ -2124,7 +2124,7 @@
       <c r="AT10" s="9"/>
     </row>
     <row r="11" spans="1:46">
-      <c r="A11" s="62"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="16"/>
       <c r="C11" s="13"/>
       <c r="D11" s="8"/>
@@ -2172,7 +2172,7 @@
       <c r="AT11" s="9"/>
     </row>
     <row r="12" spans="1:46">
-      <c r="A12" s="62"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="16"/>
       <c r="C12" s="13"/>
       <c r="D12" s="8"/>
@@ -2220,7 +2220,7 @@
       <c r="AT12" s="9"/>
     </row>
     <row r="13" spans="1:46">
-      <c r="A13" s="62"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="16"/>
       <c r="C13" s="13"/>
       <c r="D13" s="8"/>
@@ -2268,7 +2268,7 @@
       <c r="AT13" s="9"/>
     </row>
     <row r="14" spans="1:46">
-      <c r="A14" s="62"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="16"/>
       <c r="C14" s="13"/>
       <c r="D14" s="8"/>
@@ -2316,7 +2316,7 @@
       <c r="AT14" s="9"/>
     </row>
     <row r="15" spans="1:46">
-      <c r="A15" s="62"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="16"/>
       <c r="C15" s="13"/>
       <c r="D15" s="8"/>
@@ -2364,7 +2364,7 @@
       <c r="AT15" s="9"/>
     </row>
     <row r="16" spans="1:46">
-      <c r="A16" s="62"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="16"/>
       <c r="C16" s="13"/>
       <c r="D16" s="8"/>
@@ -2412,7 +2412,7 @@
       <c r="AT16" s="9"/>
     </row>
     <row r="17" spans="1:46">
-      <c r="A17" s="62"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="16"/>
       <c r="C17" s="13"/>
       <c r="D17" s="8"/>
@@ -2460,7 +2460,7 @@
       <c r="AT17" s="9"/>
     </row>
     <row r="18" spans="1:46" ht="15.75" thickBot="1">
-      <c r="A18" s="63"/>
+      <c r="A18" s="67"/>
       <c r="B18" s="27"/>
       <c r="C18" s="14"/>
       <c r="D18" s="10"/>
@@ -2508,7 +2508,7 @@
       <c r="AT18" s="11"/>
     </row>
     <row r="19" spans="1:46">
-      <c r="A19" s="64" t="s">
+      <c r="A19" s="68" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="15"/>
@@ -2558,7 +2558,7 @@
       <c r="AT19" s="30"/>
     </row>
     <row r="20" spans="1:46">
-      <c r="A20" s="62"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="16"/>
       <c r="C20" s="13"/>
       <c r="D20" s="8"/>
@@ -2606,7 +2606,7 @@
       <c r="AT20" s="9"/>
     </row>
     <row r="21" spans="1:46">
-      <c r="A21" s="62"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="16"/>
       <c r="C21" s="13"/>
       <c r="D21" s="8"/>
@@ -2654,7 +2654,7 @@
       <c r="AT21" s="9"/>
     </row>
     <row r="22" spans="1:46">
-      <c r="A22" s="62"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="16"/>
       <c r="C22" s="13"/>
       <c r="D22" s="8"/>
@@ -2702,7 +2702,7 @@
       <c r="AT22" s="9"/>
     </row>
     <row r="23" spans="1:46">
-      <c r="A23" s="62"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="16"/>
       <c r="C23" s="13"/>
       <c r="D23" s="8"/>
@@ -2750,7 +2750,7 @@
       <c r="AT23" s="9"/>
     </row>
     <row r="24" spans="1:46">
-      <c r="A24" s="62"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="16"/>
       <c r="C24" s="13"/>
       <c r="D24" s="8"/>
@@ -2798,7 +2798,7 @@
       <c r="AT24" s="9"/>
     </row>
     <row r="25" spans="1:46">
-      <c r="A25" s="62"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="16"/>
       <c r="C25" s="13"/>
       <c r="D25" s="8"/>
@@ -2846,7 +2846,7 @@
       <c r="AT25" s="9"/>
     </row>
     <row r="26" spans="1:46">
-      <c r="A26" s="62"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="16"/>
       <c r="C26" s="13"/>
       <c r="D26" s="8"/>
@@ -2894,7 +2894,7 @@
       <c r="AT26" s="9"/>
     </row>
     <row r="27" spans="1:46">
-      <c r="A27" s="62"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="16"/>
       <c r="C27" s="13"/>
       <c r="D27" s="8"/>
@@ -2942,7 +2942,7 @@
       <c r="AT27" s="9"/>
     </row>
     <row r="28" spans="1:46">
-      <c r="A28" s="62"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="16"/>
       <c r="C28" s="13"/>
       <c r="D28" s="8"/>
@@ -2990,7 +2990,7 @@
       <c r="AT28" s="9"/>
     </row>
     <row r="29" spans="1:46">
-      <c r="A29" s="62"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="16"/>
       <c r="C29" s="13"/>
       <c r="D29" s="8"/>
@@ -3038,7 +3038,7 @@
       <c r="AT29" s="9"/>
     </row>
     <row r="30" spans="1:46">
-      <c r="A30" s="62"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="16"/>
       <c r="C30" s="13"/>
       <c r="D30" s="8"/>
@@ -3086,7 +3086,7 @@
       <c r="AT30" s="9"/>
     </row>
     <row r="31" spans="1:46">
-      <c r="A31" s="62"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="16"/>
       <c r="C31" s="13"/>
       <c r="D31" s="8"/>
@@ -3134,7 +3134,7 @@
       <c r="AT31" s="9"/>
     </row>
     <row r="32" spans="1:46" ht="15.75" thickBot="1">
-      <c r="A32" s="65"/>
+      <c r="A32" s="69"/>
       <c r="B32" s="17"/>
       <c r="C32" s="31"/>
       <c r="D32" s="32"/>
@@ -3182,10 +3182,10 @@
       <c r="AT32" s="33"/>
     </row>
     <row r="33" spans="1:46" ht="42.75" customHeight="1">
-      <c r="A33" s="66" t="s">
+      <c r="A33" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="67"/>
+      <c r="B33" s="71"/>
       <c r="C33" s="24"/>
       <c r="D33" s="25"/>
       <c r="E33" s="25"/>
@@ -3232,10 +3232,10 @@
       <c r="AT33" s="26"/>
     </row>
     <row r="34" spans="1:46" ht="46.5" customHeight="1">
-      <c r="A34" s="68" t="s">
+      <c r="A34" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="69"/>
+      <c r="B34" s="73"/>
       <c r="C34" s="21" t="s">
         <v>6</v>
       </c>
@@ -3284,10 +3284,10 @@
       <c r="AT34" s="23"/>
     </row>
     <row r="35" spans="1:46" ht="51" customHeight="1">
-      <c r="A35" s="68" t="s">
+      <c r="A35" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="69"/>
+      <c r="B35" s="73"/>
       <c r="C35" s="21"/>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
@@ -3334,10 +3334,10 @@
       <c r="AT35" s="23"/>
     </row>
     <row r="36" spans="1:46" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A36" s="59" t="s">
+      <c r="A36" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="60"/>
+      <c r="B36" s="64"/>
       <c r="C36" s="18"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
@@ -3412,8 +3412,8 @@
   </sheetPr>
   <dimension ref="A1:AT40"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A29" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3475,26 +3475,26 @@
     </row>
     <row r="2" spans="1:46" ht="120.75" customHeight="1" thickBot="1">
       <c r="A2" s="5"/>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="E2" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="F2" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="G2" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="H2" s="42" t="s">
         <v>72</v>
-      </c>
-      <c r="H2" s="42" t="s">
-        <v>73</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -3536,7 +3536,7 @@
       <c r="AT2" s="4"/>
     </row>
     <row r="3" spans="1:46">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="65" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -3588,7 +3588,7 @@
       <c r="AT3" s="7"/>
     </row>
     <row r="4" spans="1:46">
-      <c r="A4" s="62"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="34" t="s">
         <v>9</v>
       </c>
@@ -3646,7 +3646,7 @@
       <c r="AT4" s="9"/>
     </row>
     <row r="5" spans="1:46">
-      <c r="A5" s="62"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="34" t="s">
         <v>23</v>
       </c>
@@ -3698,7 +3698,7 @@
       <c r="AT5" s="9"/>
     </row>
     <row r="6" spans="1:46">
-      <c r="A6" s="62"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="34" t="s">
         <v>10</v>
       </c>
@@ -3750,7 +3750,7 @@
       <c r="AT6" s="9"/>
     </row>
     <row r="7" spans="1:46">
-      <c r="A7" s="62"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="16" t="s">
         <v>18</v>
       </c>
@@ -3800,7 +3800,7 @@
       <c r="AT7" s="9"/>
     </row>
     <row r="8" spans="1:46">
-      <c r="A8" s="62"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="34" t="s">
         <v>11</v>
       </c>
@@ -3852,7 +3852,7 @@
       <c r="AT8" s="9"/>
     </row>
     <row r="9" spans="1:46">
-      <c r="A9" s="62"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="34" t="s">
         <v>12</v>
       </c>
@@ -3904,7 +3904,7 @@
       <c r="AT9" s="9"/>
     </row>
     <row r="10" spans="1:46">
-      <c r="A10" s="62"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="34" t="s">
         <v>21</v>
       </c>
@@ -3956,7 +3956,7 @@
       <c r="AT10" s="9"/>
     </row>
     <row r="11" spans="1:46">
-      <c r="A11" s="62"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="34" t="s">
         <v>10</v>
       </c>
@@ -4008,7 +4008,7 @@
       <c r="AT11" s="9"/>
     </row>
     <row r="12" spans="1:46">
-      <c r="A12" s="62"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="34" t="s">
         <v>19</v>
       </c>
@@ -4062,7 +4062,7 @@
       <c r="AT12" s="9"/>
     </row>
     <row r="13" spans="1:46">
-      <c r="A13" s="62"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="16" t="s">
         <v>13</v>
       </c>
@@ -4112,7 +4112,7 @@
       <c r="AT13" s="9"/>
     </row>
     <row r="14" spans="1:46">
-      <c r="A14" s="62"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="34" t="s">
         <v>11</v>
       </c>
@@ -4164,7 +4164,7 @@
       <c r="AT14" s="9"/>
     </row>
     <row r="15" spans="1:46">
-      <c r="A15" s="62"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="34" t="s">
         <v>12</v>
       </c>
@@ -4216,7 +4216,7 @@
       <c r="AT15" s="9"/>
     </row>
     <row r="16" spans="1:46">
-      <c r="A16" s="62"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="34" t="s">
         <v>20</v>
       </c>
@@ -4270,7 +4270,7 @@
       <c r="AT16" s="9"/>
     </row>
     <row r="17" spans="1:46">
-      <c r="A17" s="62"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="34" t="s">
         <v>22</v>
       </c>
@@ -4322,7 +4322,7 @@
       <c r="AT17" s="9"/>
     </row>
     <row r="18" spans="1:46">
-      <c r="A18" s="62"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="34" t="s">
         <v>10</v>
       </c>
@@ -4374,7 +4374,7 @@
       <c r="AT18" s="9"/>
     </row>
     <row r="19" spans="1:46">
-      <c r="A19" s="62"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="16" t="s">
         <v>35</v>
       </c>
@@ -4436,7 +4436,7 @@
       <c r="AT19" s="9"/>
     </row>
     <row r="20" spans="1:46">
-      <c r="A20" s="62"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="16"/>
       <c r="C20" s="13"/>
       <c r="D20" s="8"/>
@@ -4484,7 +4484,7 @@
       <c r="AT20" s="9"/>
     </row>
     <row r="21" spans="1:46">
-      <c r="A21" s="62"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="16"/>
       <c r="C21" s="13"/>
       <c r="D21" s="8"/>
@@ -4532,7 +4532,7 @@
       <c r="AT21" s="9"/>
     </row>
     <row r="22" spans="1:46" ht="15.75" thickBot="1">
-      <c r="A22" s="63"/>
+      <c r="A22" s="67"/>
       <c r="B22" s="27"/>
       <c r="C22" s="14"/>
       <c r="D22" s="10"/>
@@ -4580,7 +4580,7 @@
       <c r="AT22" s="11"/>
     </row>
     <row r="23" spans="1:46">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="68" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="15" t="s">
@@ -4632,7 +4632,7 @@
       <c r="AT23" s="30"/>
     </row>
     <row r="24" spans="1:46">
-      <c r="A24" s="62"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="34" t="s">
         <v>16</v>
       </c>
@@ -4684,7 +4684,7 @@
       <c r="AT24" s="9"/>
     </row>
     <row r="25" spans="1:46">
-      <c r="A25" s="62"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="34" t="s">
         <v>17</v>
       </c>
@@ -4736,7 +4736,7 @@
       <c r="AT25" s="9"/>
     </row>
     <row r="26" spans="1:46">
-      <c r="A26" s="62"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="34" t="s">
         <v>30</v>
       </c>
@@ -4788,7 +4788,7 @@
       <c r="AT26" s="9"/>
     </row>
     <row r="27" spans="1:46">
-      <c r="A27" s="62"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="34" t="s">
         <v>31</v>
       </c>
@@ -4840,7 +4840,7 @@
       <c r="AT27" s="9"/>
     </row>
     <row r="28" spans="1:46">
-      <c r="A28" s="62"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="34" t="s">
         <v>32</v>
       </c>
@@ -4892,7 +4892,7 @@
       <c r="AT28" s="9"/>
     </row>
     <row r="29" spans="1:46">
-      <c r="A29" s="62"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="34" t="s">
         <v>33</v>
       </c>
@@ -4944,7 +4944,7 @@
       <c r="AT29" s="9"/>
     </row>
     <row r="30" spans="1:46">
-      <c r="A30" s="62"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="34" t="s">
         <v>34</v>
       </c>
@@ -4996,7 +4996,7 @@
       <c r="AT30" s="9"/>
     </row>
     <row r="31" spans="1:46">
-      <c r="A31" s="62"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="16" t="s">
         <v>36</v>
       </c>
@@ -5050,7 +5050,7 @@
       <c r="AT31" s="9"/>
     </row>
     <row r="32" spans="1:46">
-      <c r="A32" s="62"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="16"/>
       <c r="C32" s="13"/>
       <c r="D32" s="8"/>
@@ -5098,7 +5098,7 @@
       <c r="AT32" s="9"/>
     </row>
     <row r="33" spans="1:46">
-      <c r="A33" s="62"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="16"/>
       <c r="C33" s="13"/>
       <c r="D33" s="8"/>
@@ -5146,7 +5146,7 @@
       <c r="AT33" s="9"/>
     </row>
     <row r="34" spans="1:46">
-      <c r="A34" s="62"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="16"/>
       <c r="C34" s="13"/>
       <c r="D34" s="8"/>
@@ -5194,7 +5194,7 @@
       <c r="AT34" s="9"/>
     </row>
     <row r="35" spans="1:46">
-      <c r="A35" s="62"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="16"/>
       <c r="C35" s="13"/>
       <c r="D35" s="8"/>
@@ -5242,7 +5242,7 @@
       <c r="AT35" s="9"/>
     </row>
     <row r="36" spans="1:46" ht="15.75" thickBot="1">
-      <c r="A36" s="65"/>
+      <c r="A36" s="69"/>
       <c r="B36" s="17"/>
       <c r="C36" s="31"/>
       <c r="D36" s="32"/>
@@ -5290,27 +5290,27 @@
       <c r="AT36" s="33"/>
     </row>
     <row r="37" spans="1:46" ht="53.25" customHeight="1">
-      <c r="A37" s="66" t="s">
+      <c r="A37" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="67"/>
+      <c r="B37" s="71"/>
       <c r="C37" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I37" s="25"/>
       <c r="J37" s="25"/>
@@ -5352,10 +5352,10 @@
       <c r="AT37" s="26"/>
     </row>
     <row r="38" spans="1:46" ht="46.5" customHeight="1">
-      <c r="A38" s="68" t="s">
+      <c r="A38" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="69"/>
+      <c r="B38" s="73"/>
       <c r="C38" s="21">
         <v>41245</v>
       </c>
@@ -5414,10 +5414,10 @@
       <c r="AT38" s="23"/>
     </row>
     <row r="39" spans="1:46" ht="51" customHeight="1">
-      <c r="A39" s="68" t="s">
+      <c r="A39" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="69"/>
+      <c r="B39" s="73"/>
       <c r="C39" s="21">
         <v>41249</v>
       </c>
@@ -5476,10 +5476,10 @@
       <c r="AT39" s="23"/>
     </row>
     <row r="40" spans="1:46" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A40" s="59" t="s">
+      <c r="A40" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="60"/>
+      <c r="B40" s="64"/>
       <c r="C40" s="18" t="s">
         <v>37</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>37</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="I40" s="19"/>
       <c r="J40" s="19"/>
@@ -5546,12 +5546,15 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:B39"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C40:AT40">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C40:G40 I40:AT40">
       <formula1>"FAIL, OK"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:AT36">
       <formula1>"O"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H40">
+      <formula1>"FAIL, OK, R-OK"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5566,8 +5569,8 @@
   </sheetPr>
   <dimension ref="A1:AT45"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A26" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5633,19 +5636,19 @@
         <v>7</v>
       </c>
       <c r="C2" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="E2" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="F2" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="G2" s="43" t="s">
         <v>77</v>
-      </c>
-      <c r="G2" s="43" t="s">
-        <v>78</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -5688,7 +5691,7 @@
       <c r="AT2" s="4"/>
     </row>
     <row r="3" spans="1:46">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="65" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="16" t="s">
@@ -5742,7 +5745,7 @@
       <c r="AT3" s="7"/>
     </row>
     <row r="4" spans="1:46">
-      <c r="A4" s="62"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="16"/>
       <c r="C4" s="13"/>
       <c r="D4" s="8"/>
@@ -5790,7 +5793,7 @@
       <c r="AT4" s="9"/>
     </row>
     <row r="5" spans="1:46">
-      <c r="A5" s="62"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="16" t="s">
         <v>25</v>
       </c>
@@ -5840,7 +5843,7 @@
       <c r="AT5" s="9"/>
     </row>
     <row r="6" spans="1:46">
-      <c r="A6" s="62"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="34" t="s">
         <v>23</v>
       </c>
@@ -5898,7 +5901,7 @@
       <c r="AT6" s="9"/>
     </row>
     <row r="7" spans="1:46">
-      <c r="A7" s="62"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="34" t="s">
         <v>10</v>
       </c>
@@ -5950,7 +5953,7 @@
       <c r="AT7" s="9"/>
     </row>
     <row r="8" spans="1:46">
-      <c r="A8" s="62"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
@@ -6000,7 +6003,7 @@
       <c r="AT8" s="9"/>
     </row>
     <row r="9" spans="1:46">
-      <c r="A9" s="62"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="34" t="s">
         <v>11</v>
       </c>
@@ -6052,7 +6055,7 @@
       <c r="AT9" s="9"/>
     </row>
     <row r="10" spans="1:46">
-      <c r="A10" s="62"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="34" t="s">
         <v>12</v>
       </c>
@@ -6104,7 +6107,7 @@
       <c r="AT10" s="9"/>
     </row>
     <row r="11" spans="1:46">
-      <c r="A11" s="62"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="34" t="s">
         <v>21</v>
       </c>
@@ -6156,7 +6159,7 @@
       <c r="AT11" s="9"/>
     </row>
     <row r="12" spans="1:46">
-      <c r="A12" s="62"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="34" t="s">
         <v>10</v>
       </c>
@@ -6208,7 +6211,7 @@
       <c r="AT12" s="9"/>
     </row>
     <row r="13" spans="1:46">
-      <c r="A13" s="62"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="34" t="s">
         <v>19</v>
       </c>
@@ -6260,7 +6263,7 @@
       <c r="AT13" s="9"/>
     </row>
     <row r="14" spans="1:46">
-      <c r="A14" s="62"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="16" t="s">
         <v>13</v>
       </c>
@@ -6310,7 +6313,7 @@
       <c r="AT14" s="9"/>
     </row>
     <row r="15" spans="1:46">
-      <c r="A15" s="62"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="34" t="s">
         <v>11</v>
       </c>
@@ -6362,7 +6365,7 @@
       <c r="AT15" s="9"/>
     </row>
     <row r="16" spans="1:46">
-      <c r="A16" s="62"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="34" t="s">
         <v>12</v>
       </c>
@@ -6414,7 +6417,7 @@
       <c r="AT16" s="9"/>
     </row>
     <row r="17" spans="1:46">
-      <c r="A17" s="62"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="34" t="s">
         <v>20</v>
       </c>
@@ -6466,7 +6469,7 @@
       <c r="AT17" s="9"/>
     </row>
     <row r="18" spans="1:46">
-      <c r="A18" s="62"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="34" t="s">
         <v>22</v>
       </c>
@@ -6518,7 +6521,7 @@
       <c r="AT18" s="9"/>
     </row>
     <row r="19" spans="1:46">
-      <c r="A19" s="62"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="34" t="s">
         <v>10</v>
       </c>
@@ -6570,9 +6573,9 @@
       <c r="AT19" s="9"/>
     </row>
     <row r="20" spans="1:46">
-      <c r="A20" s="63"/>
+      <c r="A20" s="67"/>
       <c r="B20" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="10"/>
@@ -6620,7 +6623,7 @@
       <c r="AT20" s="11"/>
     </row>
     <row r="21" spans="1:46">
-      <c r="A21" s="63"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="35"/>
       <c r="C21" s="14"/>
       <c r="D21" s="10"/>
@@ -6668,7 +6671,7 @@
       <c r="AT21" s="11"/>
     </row>
     <row r="22" spans="1:46" ht="15.75" thickBot="1">
-      <c r="A22" s="63"/>
+      <c r="A22" s="67"/>
       <c r="B22" s="27"/>
       <c r="C22" s="14"/>
       <c r="D22" s="10"/>
@@ -6716,7 +6719,7 @@
       <c r="AT22" s="11"/>
     </row>
     <row r="23" spans="1:46">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="68" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="15" t="s">
@@ -6768,7 +6771,7 @@
       <c r="AT23" s="30"/>
     </row>
     <row r="24" spans="1:46">
-      <c r="A24" s="62"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="34" t="s">
         <v>9</v>
       </c>
@@ -6818,7 +6821,7 @@
       <c r="AT24" s="9"/>
     </row>
     <row r="25" spans="1:46">
-      <c r="A25" s="62"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="16" t="s">
         <v>18</v>
       </c>
@@ -6868,7 +6871,7 @@
       <c r="AT25" s="9"/>
     </row>
     <row r="26" spans="1:46">
-      <c r="A26" s="62"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="34" t="s">
         <v>11</v>
       </c>
@@ -6918,7 +6921,7 @@
       <c r="AT26" s="9"/>
     </row>
     <row r="27" spans="1:46">
-      <c r="A27" s="62"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="16" t="s">
         <v>13</v>
       </c>
@@ -6968,7 +6971,7 @@
       <c r="AT27" s="9"/>
     </row>
     <row r="28" spans="1:46">
-      <c r="A28" s="62"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="34" t="s">
         <v>11</v>
       </c>
@@ -7018,8 +7021,8 @@
       <c r="AT28" s="9"/>
     </row>
     <row r="29" spans="1:46">
-      <c r="A29" s="62"/>
-      <c r="B29" s="76" t="s">
+      <c r="A29" s="66"/>
+      <c r="B29" s="62" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="13"/>
@@ -7068,7 +7071,7 @@
       <c r="AT29" s="9"/>
     </row>
     <row r="30" spans="1:46">
-      <c r="A30" s="62"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="34" t="s">
         <v>16</v>
       </c>
@@ -7120,7 +7123,7 @@
       <c r="AT30" s="9"/>
     </row>
     <row r="31" spans="1:46">
-      <c r="A31" s="62"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="34" t="s">
         <v>17</v>
       </c>
@@ -7172,7 +7175,7 @@
       <c r="AT31" s="9"/>
     </row>
     <row r="32" spans="1:46">
-      <c r="A32" s="62"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="34" t="s">
         <v>30</v>
       </c>
@@ -7224,7 +7227,7 @@
       <c r="AT32" s="9"/>
     </row>
     <row r="33" spans="1:46">
-      <c r="A33" s="62"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="34" t="s">
         <v>31</v>
       </c>
@@ -7276,7 +7279,7 @@
       <c r="AT33" s="9"/>
     </row>
     <row r="34" spans="1:46">
-      <c r="A34" s="62"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="34" t="s">
         <v>32</v>
       </c>
@@ -7328,7 +7331,7 @@
       <c r="AT34" s="9"/>
     </row>
     <row r="35" spans="1:46">
-      <c r="A35" s="62"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="34" t="s">
         <v>33</v>
       </c>
@@ -7378,7 +7381,7 @@
       <c r="AT35" s="9"/>
     </row>
     <row r="36" spans="1:46">
-      <c r="A36" s="62"/>
+      <c r="A36" s="66"/>
       <c r="B36" s="34" t="s">
         <v>34</v>
       </c>
@@ -7428,9 +7431,9 @@
       <c r="AT36" s="9"/>
     </row>
     <row r="37" spans="1:46">
-      <c r="A37" s="62"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>14</v>
@@ -7482,7 +7485,7 @@
       <c r="AT37" s="9"/>
     </row>
     <row r="38" spans="1:46">
-      <c r="A38" s="62"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="16"/>
       <c r="C38" s="13"/>
       <c r="D38" s="8"/>
@@ -7530,7 +7533,7 @@
       <c r="AT38" s="9"/>
     </row>
     <row r="39" spans="1:46">
-      <c r="A39" s="62"/>
+      <c r="A39" s="66"/>
       <c r="B39" s="16"/>
       <c r="C39" s="13"/>
       <c r="D39" s="8"/>
@@ -7578,7 +7581,7 @@
       <c r="AT39" s="9"/>
     </row>
     <row r="40" spans="1:46">
-      <c r="A40" s="62"/>
+      <c r="A40" s="66"/>
       <c r="B40" s="16"/>
       <c r="C40" s="13"/>
       <c r="D40" s="8"/>
@@ -7626,7 +7629,7 @@
       <c r="AT40" s="9"/>
     </row>
     <row r="41" spans="1:46" ht="15.75" thickBot="1">
-      <c r="A41" s="65"/>
+      <c r="A41" s="69"/>
       <c r="B41" s="17"/>
       <c r="C41" s="31"/>
       <c r="D41" s="32"/>
@@ -7674,24 +7677,24 @@
       <c r="AT41" s="33"/>
     </row>
     <row r="42" spans="1:46" ht="42.75" customHeight="1">
-      <c r="A42" s="66" t="s">
+      <c r="A42" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="67"/>
+      <c r="B42" s="71"/>
       <c r="C42" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H42" s="24"/>
       <c r="I42" s="25"/>
@@ -7734,10 +7737,10 @@
       <c r="AT42" s="26"/>
     </row>
     <row r="43" spans="1:46" ht="46.5" customHeight="1">
-      <c r="A43" s="68" t="s">
+      <c r="A43" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="69"/>
+      <c r="B43" s="73"/>
       <c r="C43" s="21">
         <v>41245</v>
       </c>
@@ -7794,10 +7797,10 @@
       <c r="AT43" s="23"/>
     </row>
     <row r="44" spans="1:46" ht="51" customHeight="1">
-      <c r="A44" s="68" t="s">
+      <c r="A44" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="69"/>
+      <c r="B44" s="73"/>
       <c r="C44" s="21">
         <v>41249</v>
       </c>
@@ -7854,10 +7857,10 @@
       <c r="AT44" s="23"/>
     </row>
     <row r="45" spans="1:46" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A45" s="59" t="s">
+      <c r="A45" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="60"/>
+      <c r="B45" s="64"/>
       <c r="C45" s="18" t="s">
         <v>37</v>
       </c>
@@ -7865,7 +7868,7 @@
         <v>37</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="F45" s="19" t="s">
         <v>37</v>
@@ -7922,12 +7925,15 @@
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A44:B44"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C45:AT45">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C45:D45 F45:AT45">
       <formula1>"FAIL, OK"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:AT41">
       <formula1>"O"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E45">
+      <formula1>"FAIL, OK, R-OK"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7942,8 +7948,8 @@
   </sheetPr>
   <dimension ref="A1:AT41"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8009,10 +8015,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="47" t="s">
         <v>79</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>80</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -8058,7 +8064,7 @@
       <c r="AT2" s="4"/>
     </row>
     <row r="3" spans="1:46">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="65" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="16" t="s">
@@ -8114,7 +8120,7 @@
       <c r="AT3" s="7"/>
     </row>
     <row r="4" spans="1:46">
-      <c r="A4" s="62"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="16" t="s">
         <v>28</v>
       </c>
@@ -8166,9 +8172,9 @@
       <c r="AT4" s="9"/>
     </row>
     <row r="5" spans="1:46">
-      <c r="A5" s="62"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="8" t="s">
@@ -8218,7 +8224,7 @@
       <c r="AT5" s="9"/>
     </row>
     <row r="6" spans="1:46">
-      <c r="A6" s="62"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="16"/>
       <c r="C6" s="13"/>
       <c r="D6" s="8"/>
@@ -8266,7 +8272,7 @@
       <c r="AT6" s="9"/>
     </row>
     <row r="7" spans="1:46">
-      <c r="A7" s="62"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="16"/>
       <c r="C7" s="13"/>
       <c r="D7" s="8"/>
@@ -8314,7 +8320,7 @@
       <c r="AT7" s="9"/>
     </row>
     <row r="8" spans="1:46">
-      <c r="A8" s="62"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="16"/>
       <c r="C8" s="13"/>
       <c r="D8" s="8"/>
@@ -8362,7 +8368,7 @@
       <c r="AT8" s="9"/>
     </row>
     <row r="9" spans="1:46">
-      <c r="A9" s="62"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="16"/>
       <c r="C9" s="13"/>
       <c r="D9" s="8"/>
@@ -8410,7 +8416,7 @@
       <c r="AT9" s="9"/>
     </row>
     <row r="10" spans="1:46">
-      <c r="A10" s="62"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="16"/>
       <c r="C10" s="13"/>
       <c r="D10" s="8"/>
@@ -8458,7 +8464,7 @@
       <c r="AT10" s="9"/>
     </row>
     <row r="11" spans="1:46">
-      <c r="A11" s="62"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="16"/>
       <c r="C11" s="13"/>
       <c r="D11" s="8"/>
@@ -8506,7 +8512,7 @@
       <c r="AT11" s="9"/>
     </row>
     <row r="12" spans="1:46">
-      <c r="A12" s="62"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="16"/>
       <c r="C12" s="13"/>
       <c r="D12" s="8"/>
@@ -8554,7 +8560,7 @@
       <c r="AT12" s="9"/>
     </row>
     <row r="13" spans="1:46">
-      <c r="A13" s="62"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="16"/>
       <c r="C13" s="13"/>
       <c r="D13" s="8"/>
@@ -8602,7 +8608,7 @@
       <c r="AT13" s="9"/>
     </row>
     <row r="14" spans="1:46">
-      <c r="A14" s="62"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="16"/>
       <c r="C14" s="13"/>
       <c r="D14" s="8"/>
@@ -8650,7 +8656,7 @@
       <c r="AT14" s="9"/>
     </row>
     <row r="15" spans="1:46">
-      <c r="A15" s="62"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="16"/>
       <c r="C15" s="13"/>
       <c r="D15" s="8"/>
@@ -8698,7 +8704,7 @@
       <c r="AT15" s="9"/>
     </row>
     <row r="16" spans="1:46">
-      <c r="A16" s="62"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="16"/>
       <c r="C16" s="13"/>
       <c r="D16" s="8"/>
@@ -8746,7 +8752,7 @@
       <c r="AT16" s="9"/>
     </row>
     <row r="17" spans="1:46">
-      <c r="A17" s="62"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="16"/>
       <c r="C17" s="13"/>
       <c r="D17" s="8"/>
@@ -8794,7 +8800,7 @@
       <c r="AT17" s="9"/>
     </row>
     <row r="18" spans="1:46" ht="15.75" thickBot="1">
-      <c r="A18" s="63"/>
+      <c r="A18" s="67"/>
       <c r="B18" s="27"/>
       <c r="C18" s="14"/>
       <c r="D18" s="10"/>
@@ -8842,7 +8848,7 @@
       <c r="AT18" s="11"/>
     </row>
     <row r="19" spans="1:46">
-      <c r="A19" s="64" t="s">
+      <c r="A19" s="68" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -8894,7 +8900,7 @@
       <c r="AT19" s="30"/>
     </row>
     <row r="20" spans="1:46">
-      <c r="A20" s="62"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="34" t="s">
         <v>29</v>
       </c>
@@ -8946,9 +8952,9 @@
       <c r="AT20" s="9"/>
     </row>
     <row r="21" spans="1:46">
-      <c r="A21" s="62"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="8" t="s">
@@ -8998,7 +9004,7 @@
       <c r="AT21" s="9"/>
     </row>
     <row r="22" spans="1:46">
-      <c r="A22" s="62"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="34"/>
       <c r="C22" s="13"/>
       <c r="D22" s="8"/>
@@ -9046,7 +9052,7 @@
       <c r="AT22" s="9"/>
     </row>
     <row r="23" spans="1:46">
-      <c r="A23" s="62"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="16"/>
       <c r="C23" s="13"/>
       <c r="D23" s="8"/>
@@ -9094,7 +9100,7 @@
       <c r="AT23" s="9"/>
     </row>
     <row r="24" spans="1:46" ht="21" customHeight="1">
-      <c r="A24" s="62"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="34"/>
       <c r="C24" s="13"/>
       <c r="D24" s="8"/>
@@ -9142,7 +9148,7 @@
       <c r="AT24" s="9"/>
     </row>
     <row r="25" spans="1:46">
-      <c r="A25" s="62"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="16"/>
       <c r="C25" s="13"/>
       <c r="D25" s="8"/>
@@ -9190,7 +9196,7 @@
       <c r="AT25" s="9"/>
     </row>
     <row r="26" spans="1:46">
-      <c r="A26" s="62"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="16"/>
       <c r="C26" s="13"/>
       <c r="D26" s="8"/>
@@ -9238,7 +9244,7 @@
       <c r="AT26" s="9"/>
     </row>
     <row r="27" spans="1:46">
-      <c r="A27" s="62"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="16"/>
       <c r="C27" s="13"/>
       <c r="D27" s="8"/>
@@ -9286,7 +9292,7 @@
       <c r="AT27" s="9"/>
     </row>
     <row r="28" spans="1:46">
-      <c r="A28" s="62"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="16"/>
       <c r="C28" s="13"/>
       <c r="D28" s="8"/>
@@ -9334,7 +9340,7 @@
       <c r="AT28" s="9"/>
     </row>
     <row r="29" spans="1:46">
-      <c r="A29" s="62"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="16"/>
       <c r="C29" s="13"/>
       <c r="D29" s="8"/>
@@ -9382,7 +9388,7 @@
       <c r="AT29" s="9"/>
     </row>
     <row r="30" spans="1:46">
-      <c r="A30" s="62"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="16"/>
       <c r="C30" s="13"/>
       <c r="D30" s="8"/>
@@ -9430,7 +9436,7 @@
       <c r="AT30" s="9"/>
     </row>
     <row r="31" spans="1:46">
-      <c r="A31" s="62"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="16"/>
       <c r="C31" s="13"/>
       <c r="D31" s="8"/>
@@ -9478,7 +9484,7 @@
       <c r="AT31" s="9"/>
     </row>
     <row r="32" spans="1:46">
-      <c r="A32" s="62"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="16"/>
       <c r="C32" s="13"/>
       <c r="D32" s="8"/>
@@ -9526,7 +9532,7 @@
       <c r="AT32" s="9"/>
     </row>
     <row r="33" spans="1:46">
-      <c r="A33" s="62"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="16"/>
       <c r="C33" s="13"/>
       <c r="D33" s="8"/>
@@ -9574,7 +9580,7 @@
       <c r="AT33" s="9"/>
     </row>
     <row r="34" spans="1:46">
-      <c r="A34" s="62"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="16"/>
       <c r="C34" s="13"/>
       <c r="D34" s="8"/>
@@ -9622,7 +9628,7 @@
       <c r="AT34" s="9"/>
     </row>
     <row r="35" spans="1:46">
-      <c r="A35" s="62"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="16"/>
       <c r="C35" s="13"/>
       <c r="D35" s="8"/>
@@ -9670,7 +9676,7 @@
       <c r="AT35" s="9"/>
     </row>
     <row r="36" spans="1:46">
-      <c r="A36" s="62"/>
+      <c r="A36" s="66"/>
       <c r="B36" s="16"/>
       <c r="C36" s="13"/>
       <c r="D36" s="8"/>
@@ -9718,7 +9724,7 @@
       <c r="AT36" s="9"/>
     </row>
     <row r="37" spans="1:46" ht="15.75" thickBot="1">
-      <c r="A37" s="65"/>
+      <c r="A37" s="69"/>
       <c r="B37" s="17"/>
       <c r="C37" s="31"/>
       <c r="D37" s="32"/>
@@ -9766,15 +9772,15 @@
       <c r="AT37" s="33"/>
     </row>
     <row r="38" spans="1:46" ht="42.75" customHeight="1">
-      <c r="A38" s="66" t="s">
+      <c r="A38" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="67"/>
+      <c r="B38" s="71"/>
       <c r="C38" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
@@ -9820,10 +9826,10 @@
       <c r="AT38" s="26"/>
     </row>
     <row r="39" spans="1:46" ht="46.5" customHeight="1">
-      <c r="A39" s="68" t="s">
+      <c r="A39" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="69"/>
+      <c r="B39" s="73"/>
       <c r="C39" s="21">
         <v>41245</v>
       </c>
@@ -9874,10 +9880,10 @@
       <c r="AT39" s="23"/>
     </row>
     <row r="40" spans="1:46" ht="51" customHeight="1">
-      <c r="A40" s="68" t="s">
+      <c r="A40" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="69"/>
+      <c r="B40" s="73"/>
       <c r="C40" s="21">
         <v>41249</v>
       </c>
@@ -9928,10 +9934,10 @@
       <c r="AT40" s="23"/>
     </row>
     <row r="41" spans="1:46" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A41" s="59" t="s">
+      <c r="A41" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="60"/>
+      <c r="B41" s="64"/>
       <c r="C41" s="18" t="s">
         <v>37</v>
       </c>
@@ -10010,8 +10016,8 @@
   </sheetPr>
   <dimension ref="A1:AT43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A26" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10077,25 +10083,25 @@
         <v>7</v>
       </c>
       <c r="C2" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="E2" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="F2" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="G2" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="H2" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="I2" s="47" t="s">
         <v>86</v>
-      </c>
-      <c r="I2" s="47" t="s">
-        <v>87</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -10136,11 +10142,11 @@
       <c r="AT2" s="4"/>
     </row>
     <row r="3" spans="1:46">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="65" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="6"/>
@@ -10188,9 +10194,9 @@
       <c r="AT3" s="7"/>
     </row>
     <row r="4" spans="1:46">
-      <c r="A4" s="62"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>14</v>
@@ -10240,9 +10246,9 @@
       <c r="AT4" s="9"/>
     </row>
     <row r="5" spans="1:46">
-      <c r="A5" s="62"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="8"/>
@@ -10290,9 +10296,9 @@
       <c r="AT5" s="9"/>
     </row>
     <row r="6" spans="1:46">
-      <c r="A6" s="62"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="8" t="s">
@@ -10352,9 +10358,9 @@
       <c r="AT6" s="9"/>
     </row>
     <row r="7" spans="1:46">
-      <c r="A7" s="62"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="8"/>
@@ -10402,9 +10408,9 @@
       <c r="AT7" s="9"/>
     </row>
     <row r="8" spans="1:46">
-      <c r="A8" s="62"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="8" t="s">
@@ -10454,9 +10460,9 @@
       <c r="AT8" s="9"/>
     </row>
     <row r="9" spans="1:46">
-      <c r="A9" s="62"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="8"/>
@@ -10506,9 +10512,9 @@
       <c r="AT9" s="9"/>
     </row>
     <row r="10" spans="1:46">
-      <c r="A10" s="62"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="8"/>
@@ -10558,9 +10564,9 @@
       <c r="AT10" s="9"/>
     </row>
     <row r="11" spans="1:46">
-      <c r="A11" s="62"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="8"/>
@@ -10612,9 +10618,9 @@
       <c r="AT11" s="9"/>
     </row>
     <row r="12" spans="1:46">
-      <c r="A12" s="62"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="8"/>
@@ -10664,9 +10670,9 @@
       <c r="AT12" s="9"/>
     </row>
     <row r="13" spans="1:46">
-      <c r="A13" s="62"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="8"/>
@@ -10714,9 +10720,9 @@
       <c r="AT13" s="9"/>
     </row>
     <row r="14" spans="1:46">
-      <c r="A14" s="62"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="8" t="s">
@@ -10766,9 +10772,9 @@
       <c r="AT14" s="9"/>
     </row>
     <row r="15" spans="1:46">
-      <c r="A15" s="62"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="8"/>
@@ -10818,9 +10824,9 @@
       <c r="AT15" s="9"/>
     </row>
     <row r="16" spans="1:46">
-      <c r="A16" s="62"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="8"/>
@@ -10870,9 +10876,9 @@
       <c r="AT16" s="9"/>
     </row>
     <row r="17" spans="1:46">
-      <c r="A17" s="62"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="8"/>
@@ -10922,9 +10928,9 @@
       <c r="AT17" s="9"/>
     </row>
     <row r="18" spans="1:46">
-      <c r="A18" s="62"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="8"/>
@@ -10976,9 +10982,9 @@
       <c r="AT18" s="9"/>
     </row>
     <row r="19" spans="1:46">
-      <c r="A19" s="63"/>
+      <c r="A19" s="67"/>
       <c r="B19" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="10"/>
@@ -11026,7 +11032,7 @@
       <c r="AT19" s="11"/>
     </row>
     <row r="20" spans="1:46">
-      <c r="A20" s="63"/>
+      <c r="A20" s="67"/>
       <c r="B20" s="27">
         <v>-1</v>
       </c>
@@ -11078,7 +11084,7 @@
       <c r="AT20" s="11"/>
     </row>
     <row r="21" spans="1:46">
-      <c r="A21" s="63"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="27">
         <v>15</v>
       </c>
@@ -11136,7 +11142,7 @@
       <c r="AT21" s="11"/>
     </row>
     <row r="22" spans="1:46">
-      <c r="A22" s="63"/>
+      <c r="A22" s="67"/>
       <c r="B22" s="27">
         <v>101</v>
       </c>
@@ -11188,7 +11194,7 @@
       <c r="AT22" s="11"/>
     </row>
     <row r="23" spans="1:46">
-      <c r="A23" s="63"/>
+      <c r="A23" s="67"/>
       <c r="B23" s="27"/>
       <c r="C23" s="14"/>
       <c r="D23" s="10"/>
@@ -11236,7 +11242,7 @@
       <c r="AT23" s="11"/>
     </row>
     <row r="24" spans="1:46">
-      <c r="A24" s="63"/>
+      <c r="A24" s="67"/>
       <c r="B24" s="27"/>
       <c r="C24" s="14"/>
       <c r="D24" s="10"/>
@@ -11284,7 +11290,7 @@
       <c r="AT24" s="11"/>
     </row>
     <row r="25" spans="1:46" ht="15.75" thickBot="1">
-      <c r="A25" s="63"/>
+      <c r="A25" s="67"/>
       <c r="B25" s="27"/>
       <c r="C25" s="14"/>
       <c r="D25" s="10"/>
@@ -11332,11 +11338,11 @@
       <c r="AT25" s="11"/>
     </row>
     <row r="26" spans="1:46">
-      <c r="A26" s="64" t="s">
+      <c r="A26" s="68" t="s">
         <v>1</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="28"/>
       <c r="D26" s="29"/>
@@ -11384,9 +11390,9 @@
       <c r="AT26" s="30"/>
     </row>
     <row r="27" spans="1:46">
-      <c r="A27" s="62"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>14</v>
@@ -11436,9 +11442,9 @@
       <c r="AT27" s="9"/>
     </row>
     <row r="28" spans="1:46">
-      <c r="A28" s="62"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>14</v>
@@ -11488,9 +11494,9 @@
       <c r="AT28" s="9"/>
     </row>
     <row r="29" spans="1:46">
-      <c r="A29" s="62"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>14</v>
@@ -11540,9 +11546,9 @@
       <c r="AT29" s="9"/>
     </row>
     <row r="30" spans="1:46">
-      <c r="A30" s="62"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>14</v>
@@ -11592,9 +11598,9 @@
       <c r="AT30" s="9"/>
     </row>
     <row r="31" spans="1:46">
-      <c r="A31" s="62"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>14</v>
@@ -11644,9 +11650,9 @@
       <c r="AT31" s="9"/>
     </row>
     <row r="32" spans="1:46">
-      <c r="A32" s="62"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>14</v>
@@ -11696,9 +11702,9 @@
       <c r="AT32" s="9"/>
     </row>
     <row r="33" spans="1:46">
-      <c r="A33" s="62"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>14</v>
@@ -11748,9 +11754,9 @@
       <c r="AT33" s="9"/>
     </row>
     <row r="34" spans="1:46">
-      <c r="A34" s="62"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>14</v>
@@ -11800,9 +11806,9 @@
       <c r="AT34" s="9"/>
     </row>
     <row r="35" spans="1:46">
-      <c r="A35" s="62"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>14</v>
@@ -11852,9 +11858,9 @@
       <c r="AT35" s="9"/>
     </row>
     <row r="36" spans="1:46">
-      <c r="A36" s="62"/>
+      <c r="A36" s="66"/>
       <c r="B36" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C36" s="36"/>
       <c r="D36" s="8" t="s">
@@ -11906,9 +11912,9 @@
       <c r="AT36" s="9"/>
     </row>
     <row r="37" spans="1:46">
-      <c r="A37" s="62"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="8" t="s">
@@ -11966,9 +11972,9 @@
       <c r="AT37" s="9"/>
     </row>
     <row r="38" spans="1:46">
-      <c r="A38" s="62"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="8"/>
@@ -12018,7 +12024,7 @@
       <c r="AT38" s="9"/>
     </row>
     <row r="39" spans="1:46" ht="15.75" thickBot="1">
-      <c r="A39" s="65"/>
+      <c r="A39" s="69"/>
       <c r="B39" s="17"/>
       <c r="C39" s="31"/>
       <c r="D39" s="32"/>
@@ -12066,30 +12072,30 @@
       <c r="AT39" s="33"/>
     </row>
     <row r="40" spans="1:46" ht="42.75" customHeight="1">
-      <c r="A40" s="66" t="s">
+      <c r="A40" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="67"/>
+      <c r="B40" s="71"/>
       <c r="C40" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J40" s="25"/>
       <c r="K40" s="25"/>
@@ -12130,10 +12136,10 @@
       <c r="AT40" s="26"/>
     </row>
     <row r="41" spans="1:46" ht="46.5" customHeight="1">
-      <c r="A41" s="68" t="s">
+      <c r="A41" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="69"/>
+      <c r="B41" s="73"/>
       <c r="C41" s="21">
         <v>41245</v>
       </c>
@@ -12194,10 +12200,10 @@
       <c r="AT41" s="23"/>
     </row>
     <row r="42" spans="1:46" ht="51" customHeight="1">
-      <c r="A42" s="68" t="s">
+      <c r="A42" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="69"/>
+      <c r="B42" s="73"/>
       <c r="C42" s="21">
         <v>41249</v>
       </c>
@@ -12258,27 +12264,27 @@
       <c r="AT42" s="23"/>
     </row>
     <row r="43" spans="1:46" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A43" s="59" t="s">
+      <c r="A43" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="60"/>
+      <c r="B43" s="64"/>
       <c r="C43" s="18" t="s">
         <v>37</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="I43" s="19" t="s">
         <v>37</v>
@@ -12330,12 +12336,15 @@
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C43:AT43">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C43 I43:AT43">
       <formula1>"FAIL, OK"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:AT39">
       <formula1>"O"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D43:H43">
+      <formula1>"FAIL, OK, R-OK"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12350,8 +12359,8 @@
   </sheetPr>
   <dimension ref="A1:AT43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A26" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12417,25 +12426,25 @@
         <v>7</v>
       </c>
       <c r="C2" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="E2" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="F2" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="G2" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="H2" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="I2" s="47" t="s">
         <v>93</v>
-      </c>
-      <c r="I2" s="47" t="s">
-        <v>94</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -12476,11 +12485,11 @@
       <c r="AT2" s="4"/>
     </row>
     <row r="3" spans="1:46">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="65" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="6"/>
@@ -12528,9 +12537,9 @@
       <c r="AT3" s="7"/>
     </row>
     <row r="4" spans="1:46">
-      <c r="A4" s="62"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>14</v>
@@ -12580,9 +12589,9 @@
       <c r="AT4" s="9"/>
     </row>
     <row r="5" spans="1:46">
-      <c r="A5" s="62"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="8"/>
@@ -12630,9 +12639,9 @@
       <c r="AT5" s="9"/>
     </row>
     <row r="6" spans="1:46">
-      <c r="A6" s="62"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="8" t="s">
@@ -12692,9 +12701,9 @@
       <c r="AT6" s="9"/>
     </row>
     <row r="7" spans="1:46">
-      <c r="A7" s="62"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="8"/>
@@ -12742,9 +12751,9 @@
       <c r="AT7" s="9"/>
     </row>
     <row r="8" spans="1:46">
-      <c r="A8" s="62"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="8" t="s">
@@ -12794,9 +12803,9 @@
       <c r="AT8" s="9"/>
     </row>
     <row r="9" spans="1:46">
-      <c r="A9" s="62"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="8"/>
@@ -12846,9 +12855,9 @@
       <c r="AT9" s="9"/>
     </row>
     <row r="10" spans="1:46">
-      <c r="A10" s="62"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="8"/>
@@ -12898,9 +12907,9 @@
       <c r="AT10" s="9"/>
     </row>
     <row r="11" spans="1:46">
-      <c r="A11" s="62"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="8"/>
@@ -12952,9 +12961,9 @@
       <c r="AT11" s="9"/>
     </row>
     <row r="12" spans="1:46">
-      <c r="A12" s="62"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="8"/>
@@ -13004,9 +13013,9 @@
       <c r="AT12" s="9"/>
     </row>
     <row r="13" spans="1:46">
-      <c r="A13" s="62"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="8"/>
@@ -13054,9 +13063,9 @@
       <c r="AT13" s="9"/>
     </row>
     <row r="14" spans="1:46">
-      <c r="A14" s="62"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="8" t="s">
@@ -13106,9 +13115,9 @@
       <c r="AT14" s="9"/>
     </row>
     <row r="15" spans="1:46">
-      <c r="A15" s="62"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="8"/>
@@ -13158,9 +13167,9 @@
       <c r="AT15" s="9"/>
     </row>
     <row r="16" spans="1:46">
-      <c r="A16" s="62"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="8"/>
@@ -13210,9 +13219,9 @@
       <c r="AT16" s="9"/>
     </row>
     <row r="17" spans="1:46">
-      <c r="A17" s="62"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="8"/>
@@ -13262,9 +13271,9 @@
       <c r="AT17" s="9"/>
     </row>
     <row r="18" spans="1:46">
-      <c r="A18" s="62"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="8"/>
@@ -13316,9 +13325,9 @@
       <c r="AT18" s="9"/>
     </row>
     <row r="19" spans="1:46">
-      <c r="A19" s="63"/>
+      <c r="A19" s="67"/>
       <c r="B19" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="10"/>
@@ -13366,7 +13375,7 @@
       <c r="AT19" s="11"/>
     </row>
     <row r="20" spans="1:46">
-      <c r="A20" s="63"/>
+      <c r="A20" s="67"/>
       <c r="B20" s="27">
         <v>-1</v>
       </c>
@@ -13418,7 +13427,7 @@
       <c r="AT20" s="11"/>
     </row>
     <row r="21" spans="1:46">
-      <c r="A21" s="63"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="27">
         <v>15</v>
       </c>
@@ -13476,7 +13485,7 @@
       <c r="AT21" s="11"/>
     </row>
     <row r="22" spans="1:46">
-      <c r="A22" s="63"/>
+      <c r="A22" s="67"/>
       <c r="B22" s="27">
         <v>101</v>
       </c>
@@ -13528,7 +13537,7 @@
       <c r="AT22" s="11"/>
     </row>
     <row r="23" spans="1:46">
-      <c r="A23" s="63"/>
+      <c r="A23" s="67"/>
       <c r="B23" s="27"/>
       <c r="C23" s="14"/>
       <c r="D23" s="10"/>
@@ -13576,7 +13585,7 @@
       <c r="AT23" s="11"/>
     </row>
     <row r="24" spans="1:46">
-      <c r="A24" s="63"/>
+      <c r="A24" s="67"/>
       <c r="B24" s="27"/>
       <c r="C24" s="14"/>
       <c r="D24" s="10"/>
@@ -13624,7 +13633,7 @@
       <c r="AT24" s="11"/>
     </row>
     <row r="25" spans="1:46" ht="15.75" thickBot="1">
-      <c r="A25" s="63"/>
+      <c r="A25" s="67"/>
       <c r="B25" s="27"/>
       <c r="C25" s="14"/>
       <c r="D25" s="10"/>
@@ -13672,11 +13681,11 @@
       <c r="AT25" s="11"/>
     </row>
     <row r="26" spans="1:46">
-      <c r="A26" s="64" t="s">
+      <c r="A26" s="68" t="s">
         <v>1</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="28"/>
       <c r="D26" s="29"/>
@@ -13724,9 +13733,9 @@
       <c r="AT26" s="30"/>
     </row>
     <row r="27" spans="1:46">
-      <c r="A27" s="62"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>14</v>
@@ -13776,9 +13785,9 @@
       <c r="AT27" s="9"/>
     </row>
     <row r="28" spans="1:46">
-      <c r="A28" s="62"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>14</v>
@@ -13828,9 +13837,9 @@
       <c r="AT28" s="9"/>
     </row>
     <row r="29" spans="1:46">
-      <c r="A29" s="62"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>14</v>
@@ -13880,9 +13889,9 @@
       <c r="AT29" s="9"/>
     </row>
     <row r="30" spans="1:46">
-      <c r="A30" s="62"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>14</v>
@@ -13932,9 +13941,9 @@
       <c r="AT30" s="9"/>
     </row>
     <row r="31" spans="1:46">
-      <c r="A31" s="62"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>14</v>
@@ -13984,9 +13993,9 @@
       <c r="AT31" s="9"/>
     </row>
     <row r="32" spans="1:46">
-      <c r="A32" s="62"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>14</v>
@@ -14036,9 +14045,9 @@
       <c r="AT32" s="9"/>
     </row>
     <row r="33" spans="1:46">
-      <c r="A33" s="62"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>14</v>
@@ -14088,9 +14097,9 @@
       <c r="AT33" s="9"/>
     </row>
     <row r="34" spans="1:46">
-      <c r="A34" s="62"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>14</v>
@@ -14140,9 +14149,9 @@
       <c r="AT34" s="9"/>
     </row>
     <row r="35" spans="1:46">
-      <c r="A35" s="62"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>14</v>
@@ -14192,9 +14201,9 @@
       <c r="AT35" s="9"/>
     </row>
     <row r="36" spans="1:46">
-      <c r="A36" s="62"/>
+      <c r="A36" s="66"/>
       <c r="B36" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C36" s="36"/>
       <c r="D36" s="8" t="s">
@@ -14246,9 +14255,9 @@
       <c r="AT36" s="9"/>
     </row>
     <row r="37" spans="1:46">
-      <c r="A37" s="62"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="8" t="s">
@@ -14306,9 +14315,9 @@
       <c r="AT37" s="9"/>
     </row>
     <row r="38" spans="1:46">
-      <c r="A38" s="62"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="8"/>
@@ -14358,7 +14367,7 @@
       <c r="AT38" s="9"/>
     </row>
     <row r="39" spans="1:46" ht="15.75" thickBot="1">
-      <c r="A39" s="65"/>
+      <c r="A39" s="69"/>
       <c r="B39" s="17"/>
       <c r="C39" s="31"/>
       <c r="D39" s="32"/>
@@ -14406,30 +14415,30 @@
       <c r="AT39" s="33"/>
     </row>
     <row r="40" spans="1:46" ht="42.75" customHeight="1">
-      <c r="A40" s="66" t="s">
+      <c r="A40" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="67"/>
+      <c r="B40" s="71"/>
       <c r="C40" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J40" s="25"/>
       <c r="K40" s="25"/>
@@ -14470,10 +14479,10 @@
       <c r="AT40" s="26"/>
     </row>
     <row r="41" spans="1:46" ht="46.5" customHeight="1">
-      <c r="A41" s="68" t="s">
+      <c r="A41" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="69"/>
+      <c r="B41" s="73"/>
       <c r="C41" s="21">
         <v>41245</v>
       </c>
@@ -14534,10 +14543,10 @@
       <c r="AT41" s="23"/>
     </row>
     <row r="42" spans="1:46" ht="51" customHeight="1">
-      <c r="A42" s="68" t="s">
+      <c r="A42" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="69"/>
+      <c r="B42" s="73"/>
       <c r="C42" s="21">
         <v>41249</v>
       </c>
@@ -14598,27 +14607,27 @@
       <c r="AT42" s="23"/>
     </row>
     <row r="43" spans="1:46" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A43" s="59" t="s">
+      <c r="A43" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="60"/>
+      <c r="B43" s="64"/>
       <c r="C43" s="18" t="s">
         <v>37</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="I43" s="19" t="s">
         <v>37</v>
@@ -14670,12 +14679,15 @@
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:AT39">
       <formula1>"O"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C43:AT43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C43 I43:AT43">
       <formula1>"FAIL, OK"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D43:H43">
+      <formula1>"FAIL, OK, R-OK"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14690,8 +14702,8 @@
   </sheetPr>
   <dimension ref="A1:AT36"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A30" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14757,12 +14769,12 @@
         <v>7</v>
       </c>
       <c r="C2" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" s="70"/>
+      <c r="E2" s="59"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -14806,11 +14818,11 @@
       <c r="AT2" s="4"/>
     </row>
     <row r="3" spans="1:46">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="65" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>14</v>
@@ -14862,9 +14874,9 @@
       <c r="AT3" s="7"/>
     </row>
     <row r="4" spans="1:46">
-      <c r="A4" s="62"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>14</v>
@@ -14914,9 +14926,9 @@
       <c r="AT4" s="9"/>
     </row>
     <row r="5" spans="1:46">
-      <c r="A5" s="62"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="8" t="s">
@@ -14966,7 +14978,7 @@
       <c r="AT5" s="9"/>
     </row>
     <row r="6" spans="1:46">
-      <c r="A6" s="62"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="16"/>
       <c r="C6" s="13"/>
       <c r="D6" s="8"/>
@@ -15014,7 +15026,7 @@
       <c r="AT6" s="9"/>
     </row>
     <row r="7" spans="1:46">
-      <c r="A7" s="62"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="16"/>
       <c r="C7" s="13"/>
       <c r="D7" s="8"/>
@@ -15062,7 +15074,7 @@
       <c r="AT7" s="9"/>
     </row>
     <row r="8" spans="1:46">
-      <c r="A8" s="62"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="16"/>
       <c r="C8" s="13"/>
       <c r="D8" s="8"/>
@@ -15110,7 +15122,7 @@
       <c r="AT8" s="9"/>
     </row>
     <row r="9" spans="1:46">
-      <c r="A9" s="62"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="16"/>
       <c r="C9" s="13"/>
       <c r="D9" s="8"/>
@@ -15158,7 +15170,7 @@
       <c r="AT9" s="9"/>
     </row>
     <row r="10" spans="1:46">
-      <c r="A10" s="62"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="16"/>
       <c r="C10" s="13"/>
       <c r="D10" s="8"/>
@@ -15206,7 +15218,7 @@
       <c r="AT10" s="9"/>
     </row>
     <row r="11" spans="1:46">
-      <c r="A11" s="62"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="16"/>
       <c r="C11" s="13"/>
       <c r="D11" s="8"/>
@@ -15254,7 +15266,7 @@
       <c r="AT11" s="9"/>
     </row>
     <row r="12" spans="1:46">
-      <c r="A12" s="62"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="16"/>
       <c r="C12" s="13"/>
       <c r="D12" s="8"/>
@@ -15302,7 +15314,7 @@
       <c r="AT12" s="9"/>
     </row>
     <row r="13" spans="1:46">
-      <c r="A13" s="62"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="16"/>
       <c r="C13" s="13"/>
       <c r="D13" s="8"/>
@@ -15350,7 +15362,7 @@
       <c r="AT13" s="9"/>
     </row>
     <row r="14" spans="1:46">
-      <c r="A14" s="62"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="16"/>
       <c r="C14" s="13"/>
       <c r="D14" s="8"/>
@@ -15398,7 +15410,7 @@
       <c r="AT14" s="9"/>
     </row>
     <row r="15" spans="1:46">
-      <c r="A15" s="62"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="16"/>
       <c r="C15" s="13"/>
       <c r="D15" s="8"/>
@@ -15446,7 +15458,7 @@
       <c r="AT15" s="9"/>
     </row>
     <row r="16" spans="1:46">
-      <c r="A16" s="62"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="16"/>
       <c r="C16" s="13"/>
       <c r="D16" s="8"/>
@@ -15494,7 +15506,7 @@
       <c r="AT16" s="9"/>
     </row>
     <row r="17" spans="1:46">
-      <c r="A17" s="62"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="16"/>
       <c r="C17" s="13"/>
       <c r="D17" s="8"/>
@@ -15542,7 +15554,7 @@
       <c r="AT17" s="9"/>
     </row>
     <row r="18" spans="1:46" ht="15.75" thickBot="1">
-      <c r="A18" s="63"/>
+      <c r="A18" s="67"/>
       <c r="B18" s="27"/>
       <c r="C18" s="14"/>
       <c r="D18" s="10"/>
@@ -15590,11 +15602,11 @@
       <c r="AT18" s="11"/>
     </row>
     <row r="19" spans="1:46">
-      <c r="A19" s="64" t="s">
+      <c r="A19" s="68" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C19" s="28"/>
       <c r="D19" s="29"/>
@@ -15642,9 +15654,9 @@
       <c r="AT19" s="30"/>
     </row>
     <row r="20" spans="1:46">
-      <c r="A20" s="62"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>14</v>
@@ -15694,9 +15706,9 @@
       <c r="AT20" s="9"/>
     </row>
     <row r="21" spans="1:46">
-      <c r="A21" s="62"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="8" t="s">
@@ -15746,7 +15758,7 @@
       <c r="AT21" s="9"/>
     </row>
     <row r="22" spans="1:46">
-      <c r="A22" s="62"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="16"/>
       <c r="C22" s="13"/>
       <c r="D22" s="8"/>
@@ -15794,7 +15806,7 @@
       <c r="AT22" s="9"/>
     </row>
     <row r="23" spans="1:46">
-      <c r="A23" s="62"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="16"/>
       <c r="C23" s="13"/>
       <c r="D23" s="8"/>
@@ -15842,7 +15854,7 @@
       <c r="AT23" s="9"/>
     </row>
     <row r="24" spans="1:46">
-      <c r="A24" s="62"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="16"/>
       <c r="C24" s="13"/>
       <c r="D24" s="8"/>
@@ -15890,7 +15902,7 @@
       <c r="AT24" s="9"/>
     </row>
     <row r="25" spans="1:46">
-      <c r="A25" s="62"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="16"/>
       <c r="C25" s="13"/>
       <c r="D25" s="8"/>
@@ -15938,7 +15950,7 @@
       <c r="AT25" s="9"/>
     </row>
     <row r="26" spans="1:46">
-      <c r="A26" s="62"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="16"/>
       <c r="C26" s="13"/>
       <c r="D26" s="8"/>
@@ -15986,7 +15998,7 @@
       <c r="AT26" s="9"/>
     </row>
     <row r="27" spans="1:46">
-      <c r="A27" s="62"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="16"/>
       <c r="C27" s="13"/>
       <c r="D27" s="8"/>
@@ -16034,7 +16046,7 @@
       <c r="AT27" s="9"/>
     </row>
     <row r="28" spans="1:46">
-      <c r="A28" s="62"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="16"/>
       <c r="C28" s="13"/>
       <c r="D28" s="8"/>
@@ -16082,7 +16094,7 @@
       <c r="AT28" s="9"/>
     </row>
     <row r="29" spans="1:46">
-      <c r="A29" s="62"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="16"/>
       <c r="C29" s="13"/>
       <c r="D29" s="8"/>
@@ -16130,7 +16142,7 @@
       <c r="AT29" s="9"/>
     </row>
     <row r="30" spans="1:46">
-      <c r="A30" s="62"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="16"/>
       <c r="C30" s="13"/>
       <c r="D30" s="8"/>
@@ -16178,7 +16190,7 @@
       <c r="AT30" s="9"/>
     </row>
     <row r="31" spans="1:46">
-      <c r="A31" s="62"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="16"/>
       <c r="C31" s="13"/>
       <c r="D31" s="8"/>
@@ -16226,7 +16238,7 @@
       <c r="AT31" s="9"/>
     </row>
     <row r="32" spans="1:46" ht="15.75" thickBot="1">
-      <c r="A32" s="65"/>
+      <c r="A32" s="69"/>
       <c r="B32" s="17"/>
       <c r="C32" s="31"/>
       <c r="D32" s="32"/>
@@ -16274,15 +16286,15 @@
       <c r="AT32" s="33"/>
     </row>
     <row r="33" spans="1:46" ht="49.5" customHeight="1">
-      <c r="A33" s="66" t="s">
+      <c r="A33" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="67"/>
+      <c r="B33" s="71"/>
       <c r="C33" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
@@ -16328,10 +16340,10 @@
       <c r="AT33" s="26"/>
     </row>
     <row r="34" spans="1:46" ht="46.5" customHeight="1">
-      <c r="A34" s="68" t="s">
+      <c r="A34" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="69"/>
+      <c r="B34" s="73"/>
       <c r="C34" s="21">
         <v>41245</v>
       </c>
@@ -16382,10 +16394,10 @@
       <c r="AT34" s="23"/>
     </row>
     <row r="35" spans="1:46" ht="51" customHeight="1">
-      <c r="A35" s="68" t="s">
+      <c r="A35" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="69"/>
+      <c r="B35" s="73"/>
       <c r="C35" s="21">
         <v>41246</v>
       </c>
@@ -16436,10 +16448,10 @@
       <c r="AT35" s="23"/>
     </row>
     <row r="36" spans="1:46" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A36" s="59" t="s">
+      <c r="A36" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="60"/>
+      <c r="B36" s="64"/>
       <c r="C36" s="18" t="s">
         <v>37</v>
       </c>
@@ -16518,8 +16530,8 @@
   </sheetPr>
   <dimension ref="A1:AT34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16585,19 +16597,19 @@
         <v>7</v>
       </c>
       <c r="C2" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="E2" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="F2" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="G2" s="47" t="s">
         <v>98</v>
-      </c>
-      <c r="G2" s="47" t="s">
-        <v>99</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -16640,11 +16652,11 @@
       <c r="AT2" s="4"/>
     </row>
     <row r="3" spans="1:46">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="65" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="6"/>
@@ -16692,9 +16704,9 @@
       <c r="AT3" s="7"/>
     </row>
     <row r="4" spans="1:46">
-      <c r="A4" s="62"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>14</v>
@@ -16746,7 +16758,7 @@
       <c r="AT4" s="9"/>
     </row>
     <row r="5" spans="1:46">
-      <c r="A5" s="62"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="56" t="s">
         <v>10</v>
       </c>
@@ -16800,9 +16812,9 @@
       <c r="AT5" s="9"/>
     </row>
     <row r="6" spans="1:46">
-      <c r="A6" s="62"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="8"/>
@@ -16850,9 +16862,9 @@
       <c r="AT6" s="9"/>
     </row>
     <row r="7" spans="1:46">
-      <c r="A7" s="62"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="8"/>
@@ -16902,9 +16914,9 @@
       <c r="AT7" s="9"/>
     </row>
     <row r="8" spans="1:46">
-      <c r="A8" s="62"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="8"/>
@@ -16952,7 +16964,7 @@
       <c r="AT8" s="9"/>
     </row>
     <row r="9" spans="1:46">
-      <c r="A9" s="62"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="16"/>
       <c r="C9" s="13"/>
       <c r="D9" s="8"/>
@@ -17000,9 +17012,9 @@
       <c r="AT9" s="9"/>
     </row>
     <row r="10" spans="1:46">
-      <c r="A10" s="62"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="8"/>
@@ -17050,7 +17062,7 @@
       <c r="AT10" s="9"/>
     </row>
     <row r="11" spans="1:46">
-      <c r="A11" s="62"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="34" t="s">
         <v>10</v>
       </c>
@@ -17104,9 +17116,9 @@
       <c r="AT11" s="9"/>
     </row>
     <row r="12" spans="1:46">
-      <c r="A12" s="62"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="8" t="s">
@@ -17156,9 +17168,9 @@
       <c r="AT12" s="9"/>
     </row>
     <row r="13" spans="1:46">
-      <c r="A13" s="62"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="8"/>
@@ -17206,9 +17218,9 @@
       <c r="AT13" s="9"/>
     </row>
     <row r="14" spans="1:46">
-      <c r="A14" s="62"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="8"/>
@@ -17258,9 +17270,9 @@
       <c r="AT14" s="9"/>
     </row>
     <row r="15" spans="1:46">
-      <c r="A15" s="62"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="8"/>
@@ -17310,9 +17322,9 @@
       <c r="AT15" s="9"/>
     </row>
     <row r="16" spans="1:46">
-      <c r="A16" s="62"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>14</v>
@@ -17370,7 +17382,7 @@
       <c r="AT16" s="9"/>
     </row>
     <row r="17" spans="1:46" ht="15.75" thickBot="1">
-      <c r="A17" s="63"/>
+      <c r="A17" s="67"/>
       <c r="B17" s="52"/>
       <c r="C17" s="14"/>
       <c r="D17" s="10"/>
@@ -17418,7 +17430,7 @@
       <c r="AT17" s="11"/>
     </row>
     <row r="18" spans="1:46">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="68" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="15"/>
@@ -17468,9 +17480,9 @@
       <c r="AT18" s="30"/>
     </row>
     <row r="19" spans="1:46">
-      <c r="A19" s="62"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="8"/>
@@ -17518,9 +17530,9 @@
       <c r="AT19" s="9"/>
     </row>
     <row r="20" spans="1:46">
-      <c r="A20" s="62"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>14</v>
@@ -17572,9 +17584,9 @@
       <c r="AT20" s="9"/>
     </row>
     <row r="21" spans="1:46" ht="30">
-      <c r="A21" s="62"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="8" t="s">
@@ -17624,9 +17636,9 @@
       <c r="AT21" s="9"/>
     </row>
     <row r="22" spans="1:46">
-      <c r="A22" s="62"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="8" t="s">
@@ -17676,9 +17688,9 @@
       <c r="AT22" s="9"/>
     </row>
     <row r="23" spans="1:46">
-      <c r="A23" s="62"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="8"/>
@@ -17730,9 +17742,9 @@
       <c r="AT23" s="9"/>
     </row>
     <row r="24" spans="1:46">
-      <c r="A24" s="62"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="8"/>
@@ -17782,7 +17794,7 @@
       <c r="AT24" s="9"/>
     </row>
     <row r="25" spans="1:46">
-      <c r="A25" s="62"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="16"/>
       <c r="C25" s="13"/>
       <c r="D25" s="8"/>
@@ -17830,7 +17842,7 @@
       <c r="AT25" s="9"/>
     </row>
     <row r="26" spans="1:46">
-      <c r="A26" s="62"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="16"/>
       <c r="C26" s="13"/>
       <c r="D26" s="8"/>
@@ -17878,7 +17890,7 @@
       <c r="AT26" s="9"/>
     </row>
     <row r="27" spans="1:46">
-      <c r="A27" s="62"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="16"/>
       <c r="C27" s="13"/>
       <c r="D27" s="8"/>
@@ -17926,7 +17938,7 @@
       <c r="AT27" s="9"/>
     </row>
     <row r="28" spans="1:46">
-      <c r="A28" s="62"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="16"/>
       <c r="C28" s="13"/>
       <c r="D28" s="8"/>
@@ -17974,7 +17986,7 @@
       <c r="AT28" s="9"/>
     </row>
     <row r="29" spans="1:46">
-      <c r="A29" s="62"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="16"/>
       <c r="C29" s="13"/>
       <c r="D29" s="8"/>
@@ -18022,7 +18034,7 @@
       <c r="AT29" s="9"/>
     </row>
     <row r="30" spans="1:46" ht="15.75" thickBot="1">
-      <c r="A30" s="65"/>
+      <c r="A30" s="69"/>
       <c r="B30" s="17"/>
       <c r="C30" s="31"/>
       <c r="D30" s="32"/>
@@ -18070,24 +18082,24 @@
       <c r="AT30" s="33"/>
     </row>
     <row r="31" spans="1:46" ht="42.75" customHeight="1">
-      <c r="A31" s="66" t="s">
+      <c r="A31" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="67"/>
+      <c r="B31" s="71"/>
       <c r="C31" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H31" s="25"/>
       <c r="I31" s="25"/>
@@ -18130,10 +18142,10 @@
       <c r="AT31" s="26"/>
     </row>
     <row r="32" spans="1:46" ht="46.5" customHeight="1">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="69"/>
+      <c r="B32" s="73"/>
       <c r="C32" s="21">
         <v>41245</v>
       </c>
@@ -18190,10 +18202,10 @@
       <c r="AT32" s="23"/>
     </row>
     <row r="33" spans="1:46" ht="51" customHeight="1">
-      <c r="A33" s="68" t="s">
+      <c r="A33" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="69"/>
+      <c r="B33" s="73"/>
       <c r="C33" s="21">
         <v>41249</v>
       </c>
@@ -18250,10 +18262,10 @@
       <c r="AT33" s="23"/>
     </row>
     <row r="34" spans="1:46" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A34" s="59" t="s">
+      <c r="A34" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="60"/>
+      <c r="B34" s="64"/>
       <c r="C34" s="18" t="s">
         <v>37</v>
       </c>
@@ -18338,8 +18350,8 @@
   </sheetPr>
   <dimension ref="A1:AS63"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A42" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18402,19 +18414,19 @@
         <v>7</v>
       </c>
       <c r="C2" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="E2" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="F2" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="G2" s="47" t="s">
         <v>118</v>
-      </c>
-      <c r="G2" s="47" t="s">
-        <v>119</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -18456,11 +18468,11 @@
       <c r="AS2" s="4"/>
     </row>
     <row r="3" spans="1:45" ht="15" customHeight="1">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="74" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="6"/>
@@ -18507,9 +18519,9 @@
       <c r="AS3" s="7"/>
     </row>
     <row r="4" spans="1:45">
-      <c r="A4" s="74"/>
+      <c r="A4" s="75"/>
       <c r="B4" s="56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="8"/>
@@ -18560,7 +18572,7 @@
       <c r="AS4" s="9"/>
     </row>
     <row r="5" spans="1:45">
-      <c r="A5" s="74"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="56" t="s">
         <v>10</v>
       </c>
@@ -18611,9 +18623,9 @@
       <c r="AS5" s="9"/>
     </row>
     <row r="6" spans="1:45">
-      <c r="A6" s="74"/>
+      <c r="A6" s="75"/>
       <c r="B6" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="8"/>
@@ -18660,9 +18672,9 @@
       <c r="AS6" s="9"/>
     </row>
     <row r="7" spans="1:45">
-      <c r="A7" s="74"/>
+      <c r="A7" s="75"/>
       <c r="B7" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="8"/>
@@ -18711,9 +18723,9 @@
       <c r="AS7" s="9"/>
     </row>
     <row r="8" spans="1:45">
-      <c r="A8" s="74"/>
+      <c r="A8" s="75"/>
       <c r="B8" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="8" t="s">
@@ -18762,9 +18774,9 @@
       <c r="AS8" s="9"/>
     </row>
     <row r="9" spans="1:45">
-      <c r="A9" s="74"/>
+      <c r="A9" s="75"/>
       <c r="B9" s="51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="8"/>
@@ -18811,7 +18823,7 @@
       <c r="AS9" s="9"/>
     </row>
     <row r="10" spans="1:45">
-      <c r="A10" s="74"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="56" t="s">
         <v>10</v>
       </c>
@@ -18862,9 +18874,9 @@
       <c r="AS10" s="9"/>
     </row>
     <row r="11" spans="1:45">
-      <c r="A11" s="74"/>
+      <c r="A11" s="75"/>
       <c r="B11" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="8" t="s">
@@ -18915,9 +18927,9 @@
       <c r="AS11" s="9"/>
     </row>
     <row r="12" spans="1:45">
-      <c r="A12" s="74"/>
+      <c r="A12" s="75"/>
       <c r="B12" s="34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="8"/>
@@ -18966,9 +18978,9 @@
       <c r="AS12" s="9"/>
     </row>
     <row r="13" spans="1:45">
-      <c r="A13" s="74"/>
+      <c r="A13" s="75"/>
       <c r="B13" s="57" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="8"/>
@@ -19017,9 +19029,9 @@
       <c r="AS13" s="9"/>
     </row>
     <row r="14" spans="1:45">
-      <c r="A14" s="74"/>
+      <c r="A14" s="75"/>
       <c r="B14" s="51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="8"/>
@@ -19066,7 +19078,7 @@
       <c r="AS14" s="9"/>
     </row>
     <row r="15" spans="1:45">
-      <c r="A15" s="74"/>
+      <c r="A15" s="75"/>
       <c r="B15" s="34" t="s">
         <v>10</v>
       </c>
@@ -19117,9 +19129,9 @@
       <c r="AS15" s="9"/>
     </row>
     <row r="16" spans="1:45">
-      <c r="A16" s="74"/>
+      <c r="A16" s="75"/>
       <c r="B16" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="8" t="s">
@@ -19168,9 +19180,9 @@
       <c r="AS16" s="9"/>
     </row>
     <row r="17" spans="1:45">
-      <c r="A17" s="74"/>
+      <c r="A17" s="75"/>
       <c r="B17" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="8"/>
@@ -19217,9 +19229,9 @@
       <c r="AS17" s="9"/>
     </row>
     <row r="18" spans="1:45">
-      <c r="A18" s="74"/>
+      <c r="A18" s="75"/>
       <c r="B18" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="8"/>
@@ -19272,9 +19284,9 @@
       <c r="AS18" s="9"/>
     </row>
     <row r="19" spans="1:45">
-      <c r="A19" s="74"/>
+      <c r="A19" s="75"/>
       <c r="B19" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="8"/>
@@ -19321,9 +19333,9 @@
       <c r="AS19" s="9"/>
     </row>
     <row r="20" spans="1:45">
-      <c r="A20" s="74"/>
+      <c r="A20" s="75"/>
       <c r="B20" s="51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="8"/>
@@ -19370,7 +19382,7 @@
       <c r="AS20" s="9"/>
     </row>
     <row r="21" spans="1:45">
-      <c r="A21" s="74"/>
+      <c r="A21" s="75"/>
       <c r="B21" s="55" t="s">
         <v>10</v>
       </c>
@@ -19421,9 +19433,9 @@
       <c r="AS21" s="9"/>
     </row>
     <row r="22" spans="1:45">
-      <c r="A22" s="74"/>
+      <c r="A22" s="75"/>
       <c r="B22" s="55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22" s="36"/>
       <c r="D22" s="8"/>
@@ -19470,9 +19482,9 @@
       <c r="AS22" s="9"/>
     </row>
     <row r="23" spans="1:45">
-      <c r="A23" s="74"/>
+      <c r="A23" s="75"/>
       <c r="B23" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C23" s="36"/>
       <c r="D23" s="8"/>
@@ -19525,9 +19537,9 @@
       <c r="AS23" s="9"/>
     </row>
     <row r="24" spans="1:45">
-      <c r="A24" s="74"/>
+      <c r="A24" s="75"/>
       <c r="B24" s="55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" s="36"/>
       <c r="D24" s="8"/>
@@ -19574,9 +19586,9 @@
       <c r="AS24" s="9"/>
     </row>
     <row r="25" spans="1:45">
-      <c r="A25" s="74"/>
+      <c r="A25" s="75"/>
       <c r="B25" s="34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="8" t="s">
@@ -19625,9 +19637,9 @@
       <c r="AS25" s="9"/>
     </row>
     <row r="26" spans="1:45">
-      <c r="A26" s="74"/>
+      <c r="A26" s="75"/>
       <c r="B26" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C26" s="36"/>
       <c r="D26" s="8"/>
@@ -19674,9 +19686,9 @@
       <c r="AS26" s="9"/>
     </row>
     <row r="27" spans="1:45">
-      <c r="A27" s="74"/>
+      <c r="A27" s="75"/>
       <c r="B27" s="55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C27" s="36" t="s">
         <v>14</v>
@@ -19733,9 +19745,9 @@
       <c r="AS27" s="9"/>
     </row>
     <row r="28" spans="1:45">
-      <c r="A28" s="74"/>
+      <c r="A28" s="75"/>
       <c r="B28" s="34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C28" s="36"/>
       <c r="D28" s="8"/>
@@ -19782,9 +19794,9 @@
       <c r="AS28" s="9"/>
     </row>
     <row r="29" spans="1:45">
-      <c r="A29" s="74"/>
+      <c r="A29" s="75"/>
       <c r="B29" s="51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C29" s="36"/>
       <c r="D29" s="8"/>
@@ -19831,7 +19843,7 @@
       <c r="AS29" s="9"/>
     </row>
     <row r="30" spans="1:45">
-      <c r="A30" s="74"/>
+      <c r="A30" s="75"/>
       <c r="B30" s="34" t="s">
         <v>10</v>
       </c>
@@ -19882,9 +19894,9 @@
       <c r="AS30" s="9"/>
     </row>
     <row r="31" spans="1:45">
-      <c r="A31" s="74"/>
+      <c r="A31" s="75"/>
       <c r="B31" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C31" s="36"/>
       <c r="D31" s="8"/>
@@ -19933,9 +19945,9 @@
       <c r="AS31" s="9"/>
     </row>
     <row r="32" spans="1:45">
-      <c r="A32" s="74"/>
+      <c r="A32" s="75"/>
       <c r="B32" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C32" s="36"/>
       <c r="D32" s="8"/>
@@ -19986,9 +19998,9 @@
       <c r="AS32" s="9"/>
     </row>
     <row r="33" spans="1:45">
-      <c r="A33" s="74"/>
+      <c r="A33" s="75"/>
       <c r="B33" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C33" s="36"/>
       <c r="D33" s="8" t="s">
@@ -20037,9 +20049,9 @@
       <c r="AS33" s="9"/>
     </row>
     <row r="34" spans="1:45">
-      <c r="A34" s="74"/>
+      <c r="A34" s="75"/>
       <c r="B34" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C34" s="36"/>
       <c r="D34" s="8"/>
@@ -20086,7 +20098,7 @@
       <c r="AS34" s="9"/>
     </row>
     <row r="35" spans="1:45">
-      <c r="A35" s="74"/>
+      <c r="A35" s="75"/>
       <c r="B35" s="34" t="s">
         <v>10</v>
       </c>
@@ -20137,9 +20149,9 @@
       <c r="AS35" s="9"/>
     </row>
     <row r="36" spans="1:45">
-      <c r="A36" s="74"/>
+      <c r="A36" s="75"/>
       <c r="B36" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C36" s="36"/>
       <c r="D36" s="8" t="s">
@@ -20192,9 +20204,9 @@
       <c r="AS36" s="9"/>
     </row>
     <row r="37" spans="1:45">
-      <c r="A37" s="74"/>
+      <c r="A37" s="75"/>
       <c r="B37" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C37" s="36"/>
       <c r="D37" s="8"/>
@@ -20243,9 +20255,9 @@
       <c r="AS37" s="9"/>
     </row>
     <row r="38" spans="1:45">
-      <c r="A38" s="74"/>
+      <c r="A38" s="75"/>
       <c r="B38" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C38" s="36"/>
       <c r="D38" s="8"/>
@@ -20292,9 +20304,9 @@
       <c r="AS38" s="9"/>
     </row>
     <row r="39" spans="1:45">
-      <c r="A39" s="74"/>
+      <c r="A39" s="75"/>
       <c r="B39" s="51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C39" s="36"/>
       <c r="D39" s="8"/>
@@ -20341,7 +20353,7 @@
       <c r="AS39" s="9"/>
     </row>
     <row r="40" spans="1:45">
-      <c r="A40" s="74"/>
+      <c r="A40" s="75"/>
       <c r="B40" s="34" t="s">
         <v>10</v>
       </c>
@@ -20392,9 +20404,9 @@
       <c r="AS40" s="9"/>
     </row>
     <row r="41" spans="1:45">
-      <c r="A41" s="74"/>
+      <c r="A41" s="75"/>
       <c r="B41" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C41" s="36"/>
       <c r="D41" s="8"/>
@@ -20441,9 +20453,9 @@
       <c r="AS41" s="9"/>
     </row>
     <row r="42" spans="1:45">
-      <c r="A42" s="74"/>
+      <c r="A42" s="75"/>
       <c r="B42" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C42" s="36"/>
       <c r="D42" s="8" t="s">
@@ -20496,9 +20508,9 @@
       <c r="AS42" s="9"/>
     </row>
     <row r="43" spans="1:45">
-      <c r="A43" s="74"/>
+      <c r="A43" s="75"/>
       <c r="B43" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C43" s="36"/>
       <c r="D43" s="8"/>
@@ -20547,9 +20559,9 @@
       <c r="AS43" s="9"/>
     </row>
     <row r="44" spans="1:45">
-      <c r="A44" s="74"/>
+      <c r="A44" s="75"/>
       <c r="B44" s="51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C44" s="36" t="s">
         <v>14</v>
@@ -20606,7 +20618,7 @@
       <c r="AS44" s="9"/>
     </row>
     <row r="45" spans="1:45">
-      <c r="A45" s="74"/>
+      <c r="A45" s="75"/>
       <c r="B45" s="16"/>
       <c r="C45" s="36"/>
       <c r="D45" s="8"/>
@@ -20653,7 +20665,7 @@
       <c r="AS45" s="9"/>
     </row>
     <row r="46" spans="1:45" ht="15.75" thickBot="1">
-      <c r="A46" s="75"/>
+      <c r="A46" s="76"/>
       <c r="B46" s="54"/>
       <c r="C46" s="53"/>
       <c r="D46" s="32"/>
@@ -20700,11 +20712,11 @@
       <c r="AS46" s="33"/>
     </row>
     <row r="47" spans="1:45">
-      <c r="A47" s="64" t="s">
+      <c r="A47" s="68" t="s">
         <v>1</v>
       </c>
       <c r="B47" s="50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C47" s="28"/>
       <c r="D47" s="29"/>
@@ -20751,9 +20763,9 @@
       <c r="AS47" s="30"/>
     </row>
     <row r="48" spans="1:45">
-      <c r="A48" s="62"/>
+      <c r="A48" s="66"/>
       <c r="B48" s="55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>14</v>
@@ -20802,9 +20814,9 @@
       <c r="AS48" s="9"/>
     </row>
     <row r="49" spans="1:45">
-      <c r="A49" s="62"/>
+      <c r="A49" s="66"/>
       <c r="B49" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>14</v>
@@ -20853,9 +20865,9 @@
       <c r="AS49" s="9"/>
     </row>
     <row r="50" spans="1:45">
-      <c r="A50" s="62"/>
+      <c r="A50" s="66"/>
       <c r="B50" s="58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>14</v>
@@ -20904,9 +20916,9 @@
       <c r="AS50" s="9"/>
     </row>
     <row r="51" spans="1:45">
-      <c r="A51" s="62"/>
+      <c r="A51" s="66"/>
       <c r="B51" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>14</v>
@@ -20955,9 +20967,9 @@
       <c r="AS51" s="9"/>
     </row>
     <row r="52" spans="1:45">
-      <c r="A52" s="62"/>
+      <c r="A52" s="66"/>
       <c r="B52" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>14</v>
@@ -21006,9 +21018,9 @@
       <c r="AS52" s="9"/>
     </row>
     <row r="53" spans="1:45">
-      <c r="A53" s="62"/>
+      <c r="A53" s="66"/>
       <c r="B53" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>14</v>
@@ -21057,9 +21069,9 @@
       <c r="AS53" s="9"/>
     </row>
     <row r="54" spans="1:45">
-      <c r="A54" s="62"/>
+      <c r="A54" s="66"/>
       <c r="B54" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="8" t="s">
@@ -21108,9 +21120,9 @@
       <c r="AS54" s="9"/>
     </row>
     <row r="55" spans="1:45" ht="30">
-      <c r="A55" s="62"/>
+      <c r="A55" s="66"/>
       <c r="B55" s="58" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="8"/>
@@ -21161,9 +21173,9 @@
       <c r="AS55" s="9"/>
     </row>
     <row r="56" spans="1:45">
-      <c r="A56" s="62"/>
+      <c r="A56" s="66"/>
       <c r="B56" s="34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="8"/>
@@ -21214,9 +21226,9 @@
       <c r="AS56" s="9"/>
     </row>
     <row r="57" spans="1:45">
-      <c r="A57" s="62"/>
+      <c r="A57" s="66"/>
       <c r="B57" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="8" t="s">
@@ -21265,9 +21277,9 @@
       <c r="AS57" s="9"/>
     </row>
     <row r="58" spans="1:45">
-      <c r="A58" s="62"/>
+      <c r="A58" s="66"/>
       <c r="B58" s="34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="8"/>
@@ -21316,7 +21328,7 @@
       <c r="AS58" s="9"/>
     </row>
     <row r="59" spans="1:45" ht="15.75" thickBot="1">
-      <c r="A59" s="65"/>
+      <c r="A59" s="69"/>
       <c r="B59" s="17"/>
       <c r="C59" s="31"/>
       <c r="D59" s="32"/>
@@ -21363,24 +21375,24 @@
       <c r="AS59" s="33"/>
     </row>
     <row r="60" spans="1:45" ht="42.75" customHeight="1">
-      <c r="A60" s="66" t="s">
+      <c r="A60" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B60" s="67"/>
+      <c r="B60" s="71"/>
       <c r="C60" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E60" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F60" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H60" s="25"/>
       <c r="I60" s="25"/>
@@ -21422,10 +21434,10 @@
       <c r="AS60" s="26"/>
     </row>
     <row r="61" spans="1:45" ht="46.5" customHeight="1">
-      <c r="A61" s="68" t="s">
+      <c r="A61" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="69"/>
+      <c r="B61" s="73"/>
       <c r="C61" s="21">
         <v>41245</v>
       </c>
@@ -21481,10 +21493,10 @@
       <c r="AS61" s="23"/>
     </row>
     <row r="62" spans="1:45" ht="51" customHeight="1">
-      <c r="A62" s="68" t="s">
+      <c r="A62" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B62" s="69"/>
+      <c r="B62" s="73"/>
       <c r="C62" s="21">
         <v>41249</v>
       </c>
@@ -21540,10 +21552,10 @@
       <c r="AS62" s="23"/>
     </row>
     <row r="63" spans="1:45" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A63" s="59" t="s">
+      <c r="A63" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B63" s="60"/>
+      <c r="B63" s="64"/>
       <c r="C63" s="18" t="s">
         <v>37</v>
       </c>
@@ -21600,12 +21612,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A3:A46"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A47:A59"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A3:A46"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:AS59">

--- a/trunk/Delivers/Test Case.xlsx
+++ b/trunk/Delivers/Test Case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8010" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8010" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" state="hidden" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Delete Contest'!$A$2:$C$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Delete_Question!$A$2:$C$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Edit _Question'!$A$2:$C$43</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Edit_Contest!$A$2:$C$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Edit_Contest!$A$2:$C$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Template!$A$2:$C$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Create register'!$A$1:$AT$64</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Create user'!$A$1:$AU$35</definedName>
@@ -34,7 +34,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Delete Contest'!$A$1:$AU$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">Delete_Question!$A$1:$AU$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Edit _Question'!$A$1:$AU$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Edit_Contest!$A$1:$AU$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Edit_Contest!$A$1:$AU$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Template!$A$1:$AU$37</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="158">
   <si>
     <t>INPUT</t>
   </si>
@@ -70,9 +70,6 @@
                   Description</t>
   </si>
   <si>
-    <t>Contest Name có giá trị là:</t>
-  </si>
-  <si>
     <t>"ABC"</t>
   </si>
   <si>
@@ -85,22 +82,13 @@
     <t>"41123213132"</t>
   </si>
   <si>
-    <t>Finish Date có giá trị là</t>
-  </si>
-  <si>
     <t>O</t>
-  </si>
-  <si>
-    <t>Xuất hiện message lỗi với nội dung là</t>
   </si>
   <si>
     <t>"The value '41123213132' is not valid for Start Date."</t>
   </si>
   <si>
     <t>" The value '41123213132' is not valid for Finish Date."</t>
-  </si>
-  <si>
-    <t>Start Date có giá trị là:</t>
   </si>
   <si>
     <t>"29/2/2013"</t>
@@ -118,24 +106,6 @@
     <t>"AQE#$#%$%..2"</t>
   </si>
   <si>
-    <t>Click vào link edit của contest có tên ABC</t>
-  </si>
-  <si>
-    <t>Contest Name đc set giá trị mới là</t>
-  </si>
-  <si>
-    <t>Click vào link delete của contest có tên ABC</t>
-  </si>
-  <si>
-    <t>MÀn hình delete contest test xuất hiện</t>
-  </si>
-  <si>
-    <t>Button Delete đc click</t>
-  </si>
-  <si>
-    <t>Thực hiện xóa contest AVC ra khỏi csdl</t>
-  </si>
-  <si>
     <t>"The Contest Name field is required."</t>
   </si>
   <si>
@@ -151,28 +121,10 @@
     <t>"The value '29/2/2013' is not valid for Start Date."</t>
   </si>
   <si>
-    <t>Nút creat được click</t>
-  </si>
-  <si>
-    <t>Lưu Contest mới vào CSDL</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
-    <t>Nút Save được click</t>
-  </si>
-  <si>
-    <t>Lưu Nội dung mới vào CSDL</t>
-  </si>
-  <si>
     <t>Click Back_link</t>
-  </si>
-  <si>
-    <t>Quay trở lại màn hình quản lý</t>
-  </si>
-  <si>
-    <t>Xuất hiện thông báo với nội dung là</t>
   </si>
   <si>
     <t>"The Title field is required."</t>
@@ -512,6 +464,60 @@
   </si>
   <si>
     <t>R-OK</t>
+  </si>
+  <si>
+    <t>Value of Contest Name is:</t>
+  </si>
+  <si>
+    <t>Value of Start Date is:</t>
+  </si>
+  <si>
+    <t>Value of Finish Date is</t>
+  </si>
+  <si>
+    <t>Click on Create button</t>
+  </si>
+  <si>
+    <t>Appear error message with content</t>
+  </si>
+  <si>
+    <t>Database saves the new Contest</t>
+  </si>
+  <si>
+    <t>Click on the edit link of the contest named ABC</t>
+  </si>
+  <si>
+    <t>Contest Name is set to the new value is</t>
+  </si>
+  <si>
+    <t>Start Date value is:</t>
+  </si>
+  <si>
+    <t>Finish Date has value</t>
+  </si>
+  <si>
+    <t>Save button is clicked</t>
+  </si>
+  <si>
+    <t>Contest Name value is</t>
+  </si>
+  <si>
+    <t>Save the new content database</t>
+  </si>
+  <si>
+    <t>Click on the delete link of the contest named ABC</t>
+  </si>
+  <si>
+    <t>Delete button is clicked</t>
+  </si>
+  <si>
+    <t>Delete screen test contest appear</t>
+  </si>
+  <si>
+    <t>To remove the ABC contest from the database</t>
+  </si>
+  <si>
+    <t>Appear content to inform</t>
   </si>
 </sst>
 </file>
@@ -3412,8 +3418,8 @@
   </sheetPr>
   <dimension ref="A1:AT40"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A29" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3479,22 +3485,22 @@
         <v>7</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="G2" s="42" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="H2" s="42" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -3540,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="6"/>
@@ -3590,21 +3596,21 @@
     <row r="4" spans="1:46">
       <c r="A4" s="66"/>
       <c r="B4" s="34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -3648,11 +3654,11 @@
     <row r="5" spans="1:46">
       <c r="A5" s="66"/>
       <c r="B5" s="34" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -3700,12 +3706,12 @@
     <row r="6" spans="1:46">
       <c r="A6" s="66"/>
       <c r="B6" s="34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -3752,7 +3758,7 @@
     <row r="7" spans="1:46">
       <c r="A7" s="66"/>
       <c r="B7" s="16" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="8"/>
@@ -3802,10 +3808,10 @@
     <row r="8" spans="1:46">
       <c r="A8" s="66"/>
       <c r="B8" s="34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -3854,11 +3860,11 @@
     <row r="9" spans="1:46">
       <c r="A9" s="66"/>
       <c r="B9" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -3906,12 +3912,12 @@
     <row r="10" spans="1:46">
       <c r="A10" s="66"/>
       <c r="B10" s="34" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -3958,13 +3964,13 @@
     <row r="11" spans="1:46">
       <c r="A11" s="66"/>
       <c r="B11" s="34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -4010,17 +4016,17 @@
     <row r="12" spans="1:46">
       <c r="A12" s="66"/>
       <c r="B12" s="34" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -4064,7 +4070,7 @@
     <row r="13" spans="1:46">
       <c r="A13" s="66"/>
       <c r="B13" s="16" t="s">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="8"/>
@@ -4114,10 +4120,10 @@
     <row r="14" spans="1:46">
       <c r="A14" s="66"/>
       <c r="B14" s="34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -4166,11 +4172,11 @@
     <row r="15" spans="1:46">
       <c r="A15" s="66"/>
       <c r="B15" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -4218,17 +4224,17 @@
     <row r="16" spans="1:46">
       <c r="A16" s="66"/>
       <c r="B16" s="34" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -4272,13 +4278,13 @@
     <row r="17" spans="1:46">
       <c r="A17" s="66"/>
       <c r="B17" s="34" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -4324,14 +4330,14 @@
     <row r="18" spans="1:46">
       <c r="A18" s="66"/>
       <c r="B18" s="34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -4376,25 +4382,25 @@
     <row r="19" spans="1:46">
       <c r="A19" s="66"/>
       <c r="B19" s="16" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -4584,7 +4590,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="C23" s="28"/>
       <c r="D23" s="29"/>
@@ -4634,11 +4640,11 @@
     <row r="24" spans="1:46">
       <c r="A24" s="66"/>
       <c r="B24" s="34" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -4686,11 +4692,11 @@
     <row r="25" spans="1:46">
       <c r="A25" s="66"/>
       <c r="B25" s="34" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -4738,12 +4744,12 @@
     <row r="26" spans="1:46">
       <c r="A26" s="66"/>
       <c r="B26" s="34" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -4790,13 +4796,13 @@
     <row r="27" spans="1:46">
       <c r="A27" s="66"/>
       <c r="B27" s="34" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -4842,14 +4848,14 @@
     <row r="28" spans="1:46">
       <c r="A28" s="66"/>
       <c r="B28" s="34" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
@@ -4894,13 +4900,13 @@
     <row r="29" spans="1:46">
       <c r="A29" s="66"/>
       <c r="B29" s="34" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
@@ -4946,14 +4952,14 @@
     <row r="30" spans="1:46">
       <c r="A30" s="66"/>
       <c r="B30" s="34" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
@@ -4998,17 +5004,17 @@
     <row r="31" spans="1:46">
       <c r="A31" s="66"/>
       <c r="B31" s="16" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
@@ -5295,22 +5301,22 @@
       </c>
       <c r="B37" s="71"/>
       <c r="C37" s="24" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="I37" s="25"/>
       <c r="J37" s="25"/>
@@ -5481,22 +5487,22 @@
       </c>
       <c r="B40" s="64"/>
       <c r="C40" s="18" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="I40" s="19"/>
       <c r="J40" s="19"/>
@@ -5567,10 +5573,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AT45"/>
+  <dimension ref="A1:AT44"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A26" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5636,19 +5642,19 @@
         <v>7</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F2" s="43" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="G2" s="43" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -5695,10 +5701,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -5746,7 +5752,9 @@
     </row>
     <row r="4" spans="1:46">
       <c r="A4" s="66"/>
-      <c r="B4" s="16"/>
+      <c r="B4" s="16" t="s">
+        <v>147</v>
+      </c>
       <c r="C4" s="13"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -5794,14 +5802,22 @@
     </row>
     <row r="5" spans="1:46">
       <c r="A5" s="66"/>
-      <c r="B5" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="13"/>
+      <c r="B5" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -5845,21 +5861,15 @@
     <row r="6" spans="1:46">
       <c r="A6" s="66"/>
       <c r="B6" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>14</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -5902,13 +5912,11 @@
     </row>
     <row r="7" spans="1:46">
       <c r="A7" s="66"/>
-      <c r="B7" s="34" t="s">
-        <v>10</v>
+      <c r="B7" s="16" t="s">
+        <v>148</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -5954,10 +5962,12 @@
     </row>
     <row r="8" spans="1:46">
       <c r="A8" s="66"/>
-      <c r="B8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="13"/>
+      <c r="B8" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -6007,10 +6017,10 @@
       <c r="B9" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="8"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -6057,13 +6067,13 @@
     <row r="10" spans="1:46">
       <c r="A10" s="66"/>
       <c r="B10" s="34" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -6109,14 +6119,14 @@
     <row r="11" spans="1:46">
       <c r="A11" s="66"/>
       <c r="B11" s="34" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -6161,15 +6171,15 @@
     <row r="12" spans="1:46">
       <c r="A12" s="66"/>
       <c r="B12" s="34" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -6212,16 +6222,14 @@
     </row>
     <row r="13" spans="1:46">
       <c r="A13" s="66"/>
-      <c r="B13" s="34" t="s">
-        <v>19</v>
+      <c r="B13" s="16" t="s">
+        <v>149</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -6264,10 +6272,12 @@
     </row>
     <row r="14" spans="1:46">
       <c r="A14" s="66"/>
-      <c r="B14" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="13"/>
+      <c r="B14" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -6317,10 +6327,10 @@
       <c r="B15" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="8"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -6367,13 +6377,13 @@
     <row r="16" spans="1:46">
       <c r="A16" s="66"/>
       <c r="B16" s="34" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -6419,14 +6429,14 @@
     <row r="17" spans="1:46">
       <c r="A17" s="66"/>
       <c r="B17" s="34" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -6471,15 +6481,15 @@
     <row r="18" spans="1:46">
       <c r="A18" s="66"/>
       <c r="B18" s="34" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -6521,62 +6531,58 @@
       <c r="AT18" s="9"/>
     </row>
     <row r="19" spans="1:46">
-      <c r="A19" s="66"/>
-      <c r="B19" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="8"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="8"/>
-      <c r="AD19" s="8"/>
-      <c r="AE19" s="8"/>
-      <c r="AF19" s="8"/>
-      <c r="AG19" s="8"/>
-      <c r="AH19" s="8"/>
-      <c r="AI19" s="8"/>
-      <c r="AJ19" s="8"/>
-      <c r="AK19" s="8"/>
-      <c r="AL19" s="8"/>
-      <c r="AM19" s="8"/>
-      <c r="AN19" s="8"/>
-      <c r="AO19" s="8"/>
-      <c r="AP19" s="8"/>
-      <c r="AQ19" s="8"/>
-      <c r="AR19" s="8"/>
-      <c r="AS19" s="8"/>
-      <c r="AT19" s="9"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10"/>
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="10"/>
+      <c r="AO19" s="10"/>
+      <c r="AP19" s="10"/>
+      <c r="AQ19" s="10"/>
+      <c r="AR19" s="10"/>
+      <c r="AS19" s="10"/>
+      <c r="AT19" s="11"/>
     </row>
     <row r="20" spans="1:46">
       <c r="A20" s="67"/>
-      <c r="B20" s="27" t="s">
-        <v>38</v>
-      </c>
+      <c r="B20" s="35"/>
       <c r="C20" s="14"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -6622,9 +6628,9 @@
       <c r="AS20" s="10"/>
       <c r="AT20" s="11"/>
     </row>
-    <row r="21" spans="1:46">
+    <row r="21" spans="1:46" ht="15.75" thickBot="1">
       <c r="A21" s="67"/>
-      <c r="B21" s="35"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="14"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -6670,110 +6676,114 @@
       <c r="AS21" s="10"/>
       <c r="AT21" s="11"/>
     </row>
-    <row r="22" spans="1:46" ht="15.75" thickBot="1">
-      <c r="A22" s="67"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="10"/>
-      <c r="AH22" s="10"/>
-      <c r="AI22" s="10"/>
-      <c r="AJ22" s="10"/>
-      <c r="AK22" s="10"/>
-      <c r="AL22" s="10"/>
-      <c r="AM22" s="10"/>
-      <c r="AN22" s="10"/>
-      <c r="AO22" s="10"/>
-      <c r="AP22" s="10"/>
-      <c r="AQ22" s="10"/>
-      <c r="AR22" s="10"/>
-      <c r="AS22" s="10"/>
-      <c r="AT22" s="11"/>
+    <row r="22" spans="1:46">
+      <c r="A22" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="29"/>
+      <c r="AF22" s="29"/>
+      <c r="AG22" s="29"/>
+      <c r="AH22" s="29"/>
+      <c r="AI22" s="29"/>
+      <c r="AJ22" s="29"/>
+      <c r="AK22" s="29"/>
+      <c r="AL22" s="29"/>
+      <c r="AM22" s="29"/>
+      <c r="AN22" s="29"/>
+      <c r="AO22" s="29"/>
+      <c r="AP22" s="29"/>
+      <c r="AQ22" s="29"/>
+      <c r="AR22" s="29"/>
+      <c r="AS22" s="29"/>
+      <c r="AT22" s="30"/>
     </row>
     <row r="23" spans="1:46">
-      <c r="A23" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="15" t="s">
+      <c r="A23" s="66"/>
+      <c r="B23" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="29"/>
-      <c r="AA23" s="29"/>
-      <c r="AB23" s="29"/>
-      <c r="AC23" s="29"/>
-      <c r="AD23" s="29"/>
-      <c r="AE23" s="29"/>
-      <c r="AF23" s="29"/>
-      <c r="AG23" s="29"/>
-      <c r="AH23" s="29"/>
-      <c r="AI23" s="29"/>
-      <c r="AJ23" s="29"/>
-      <c r="AK23" s="29"/>
-      <c r="AL23" s="29"/>
-      <c r="AM23" s="29"/>
-      <c r="AN23" s="29"/>
-      <c r="AO23" s="29"/>
-      <c r="AP23" s="29"/>
-      <c r="AQ23" s="29"/>
-      <c r="AR23" s="29"/>
-      <c r="AS23" s="29"/>
-      <c r="AT23" s="30"/>
+      <c r="C23" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="8"/>
+      <c r="AN23" s="8"/>
+      <c r="AO23" s="8"/>
+      <c r="AP23" s="8"/>
+      <c r="AQ23" s="8"/>
+      <c r="AR23" s="8"/>
+      <c r="AS23" s="8"/>
+      <c r="AT23" s="9"/>
     </row>
     <row r="24" spans="1:46">
       <c r="A24" s="66"/>
-      <c r="B24" s="34" t="s">
-        <v>9</v>
+      <c r="B24" s="16" t="s">
+        <v>148</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="8"/>
@@ -6822,10 +6832,12 @@
     </row>
     <row r="25" spans="1:46">
       <c r="A25" s="66"/>
-      <c r="B25" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="13"/>
+      <c r="B25" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -6872,8 +6884,8 @@
     </row>
     <row r="26" spans="1:46">
       <c r="A26" s="66"/>
-      <c r="B26" s="34" t="s">
-        <v>11</v>
+      <c r="B26" s="16" t="s">
+        <v>149</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="8"/>
@@ -6922,10 +6934,12 @@
     </row>
     <row r="27" spans="1:46">
       <c r="A27" s="66"/>
-      <c r="B27" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="13"/>
+      <c r="B27" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -6972,8 +6986,8 @@
     </row>
     <row r="28" spans="1:46">
       <c r="A28" s="66"/>
-      <c r="B28" s="34" t="s">
-        <v>11</v>
+      <c r="B28" s="62" t="s">
+        <v>144</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="8"/>
@@ -7022,11 +7036,13 @@
     </row>
     <row r="29" spans="1:46">
       <c r="A29" s="66"/>
-      <c r="B29" s="62" t="s">
-        <v>15</v>
+      <c r="B29" s="34" t="s">
+        <v>13</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="8"/>
+      <c r="D29" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -7073,11 +7089,11 @@
     <row r="30" spans="1:46">
       <c r="A30" s="66"/>
       <c r="B30" s="34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -7125,11 +7141,11 @@
     <row r="31" spans="1:46">
       <c r="A31" s="66"/>
       <c r="B31" s="34" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -7177,14 +7193,14 @@
     <row r="32" spans="1:46">
       <c r="A32" s="66"/>
       <c r="B32" s="34" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="D32" s="8"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -7229,15 +7245,15 @@
     <row r="33" spans="1:46">
       <c r="A33" s="66"/>
       <c r="B33" s="34" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
@@ -7281,15 +7297,13 @@
     <row r="34" spans="1:46">
       <c r="A34" s="66"/>
       <c r="B34" s="34" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
@@ -7333,7 +7347,7 @@
     <row r="35" spans="1:46">
       <c r="A35" s="66"/>
       <c r="B35" s="34" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="8"/>
@@ -7382,12 +7396,16 @@
     </row>
     <row r="36" spans="1:46">
       <c r="A36" s="66"/>
-      <c r="B36" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="13"/>
+      <c r="B36" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -7432,16 +7450,10 @@
     </row>
     <row r="37" spans="1:46">
       <c r="A37" s="66"/>
-      <c r="B37" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>14</v>
-      </c>
+      <c r="B37" s="16"/>
+      <c r="C37" s="13"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
@@ -7580,181 +7592,193 @@
       <c r="AS39" s="8"/>
       <c r="AT39" s="9"/>
     </row>
-    <row r="40" spans="1:46">
-      <c r="A40" s="66"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="8"/>
-      <c r="T40" s="8"/>
-      <c r="U40" s="8"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="8"/>
-      <c r="X40" s="8"/>
-      <c r="Y40" s="8"/>
-      <c r="Z40" s="8"/>
-      <c r="AA40" s="8"/>
-      <c r="AB40" s="8"/>
-      <c r="AC40" s="8"/>
-      <c r="AD40" s="8"/>
-      <c r="AE40" s="8"/>
-      <c r="AF40" s="8"/>
-      <c r="AG40" s="8"/>
-      <c r="AH40" s="8"/>
-      <c r="AI40" s="8"/>
-      <c r="AJ40" s="8"/>
-      <c r="AK40" s="8"/>
-      <c r="AL40" s="8"/>
-      <c r="AM40" s="8"/>
-      <c r="AN40" s="8"/>
-      <c r="AO40" s="8"/>
-      <c r="AP40" s="8"/>
-      <c r="AQ40" s="8"/>
-      <c r="AR40" s="8"/>
-      <c r="AS40" s="8"/>
-      <c r="AT40" s="9"/>
-    </row>
-    <row r="41" spans="1:46" ht="15.75" thickBot="1">
-      <c r="A41" s="69"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="32"/>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="32"/>
-      <c r="R41" s="32"/>
-      <c r="S41" s="32"/>
-      <c r="T41" s="32"/>
-      <c r="U41" s="32"/>
-      <c r="V41" s="32"/>
-      <c r="W41" s="32"/>
-      <c r="X41" s="32"/>
-      <c r="Y41" s="32"/>
-      <c r="Z41" s="32"/>
-      <c r="AA41" s="32"/>
-      <c r="AB41" s="32"/>
-      <c r="AC41" s="32"/>
-      <c r="AD41" s="32"/>
-      <c r="AE41" s="32"/>
-      <c r="AF41" s="32"/>
-      <c r="AG41" s="32"/>
-      <c r="AH41" s="32"/>
-      <c r="AI41" s="32"/>
-      <c r="AJ41" s="32"/>
-      <c r="AK41" s="32"/>
-      <c r="AL41" s="32"/>
-      <c r="AM41" s="32"/>
-      <c r="AN41" s="32"/>
-      <c r="AO41" s="32"/>
-      <c r="AP41" s="32"/>
-      <c r="AQ41" s="32"/>
-      <c r="AR41" s="32"/>
-      <c r="AS41" s="32"/>
-      <c r="AT41" s="33"/>
-    </row>
-    <row r="42" spans="1:46" ht="42.75" customHeight="1">
-      <c r="A42" s="70" t="s">
+    <row r="40" spans="1:46" ht="15.75" thickBot="1">
+      <c r="A40" s="69"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="32"/>
+      <c r="U40" s="32"/>
+      <c r="V40" s="32"/>
+      <c r="W40" s="32"/>
+      <c r="X40" s="32"/>
+      <c r="Y40" s="32"/>
+      <c r="Z40" s="32"/>
+      <c r="AA40" s="32"/>
+      <c r="AB40" s="32"/>
+      <c r="AC40" s="32"/>
+      <c r="AD40" s="32"/>
+      <c r="AE40" s="32"/>
+      <c r="AF40" s="32"/>
+      <c r="AG40" s="32"/>
+      <c r="AH40" s="32"/>
+      <c r="AI40" s="32"/>
+      <c r="AJ40" s="32"/>
+      <c r="AK40" s="32"/>
+      <c r="AL40" s="32"/>
+      <c r="AM40" s="32"/>
+      <c r="AN40" s="32"/>
+      <c r="AO40" s="32"/>
+      <c r="AP40" s="32"/>
+      <c r="AQ40" s="32"/>
+      <c r="AR40" s="32"/>
+      <c r="AS40" s="32"/>
+      <c r="AT40" s="33"/>
+    </row>
+    <row r="41" spans="1:46" ht="42.75" customHeight="1">
+      <c r="A41" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="71"/>
-      <c r="C42" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="E42" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="F42" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="G42" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="H42" s="24"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="25"/>
-      <c r="O42" s="25"/>
-      <c r="P42" s="25"/>
-      <c r="Q42" s="25"/>
-      <c r="R42" s="25"/>
-      <c r="S42" s="25"/>
-      <c r="T42" s="25"/>
-      <c r="U42" s="25"/>
-      <c r="V42" s="25"/>
-      <c r="W42" s="25"/>
-      <c r="X42" s="25"/>
-      <c r="Y42" s="25"/>
-      <c r="Z42" s="25"/>
-      <c r="AA42" s="25"/>
-      <c r="AB42" s="25"/>
-      <c r="AC42" s="25"/>
-      <c r="AD42" s="25"/>
-      <c r="AE42" s="25"/>
-      <c r="AF42" s="25"/>
-      <c r="AG42" s="25"/>
-      <c r="AH42" s="25"/>
-      <c r="AI42" s="25"/>
-      <c r="AJ42" s="25"/>
-      <c r="AK42" s="25"/>
-      <c r="AL42" s="25"/>
-      <c r="AM42" s="25"/>
-      <c r="AN42" s="25"/>
-      <c r="AO42" s="25"/>
-      <c r="AP42" s="25"/>
-      <c r="AQ42" s="25"/>
-      <c r="AR42" s="25"/>
-      <c r="AS42" s="25"/>
-      <c r="AT42" s="26"/>
-    </row>
-    <row r="43" spans="1:46" ht="46.5" customHeight="1">
+      <c r="B41" s="71"/>
+      <c r="C41" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="H41" s="24"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="25"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="25"/>
+      <c r="W41" s="25"/>
+      <c r="X41" s="25"/>
+      <c r="Y41" s="25"/>
+      <c r="Z41" s="25"/>
+      <c r="AA41" s="25"/>
+      <c r="AB41" s="25"/>
+      <c r="AC41" s="25"/>
+      <c r="AD41" s="25"/>
+      <c r="AE41" s="25"/>
+      <c r="AF41" s="25"/>
+      <c r="AG41" s="25"/>
+      <c r="AH41" s="25"/>
+      <c r="AI41" s="25"/>
+      <c r="AJ41" s="25"/>
+      <c r="AK41" s="25"/>
+      <c r="AL41" s="25"/>
+      <c r="AM41" s="25"/>
+      <c r="AN41" s="25"/>
+      <c r="AO41" s="25"/>
+      <c r="AP41" s="25"/>
+      <c r="AQ41" s="25"/>
+      <c r="AR41" s="25"/>
+      <c r="AS41" s="25"/>
+      <c r="AT41" s="26"/>
+    </row>
+    <row r="42" spans="1:46" ht="46.5" customHeight="1">
+      <c r="A42" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="73"/>
+      <c r="C42" s="21">
+        <v>41245</v>
+      </c>
+      <c r="D42" s="21">
+        <v>41246</v>
+      </c>
+      <c r="E42" s="21">
+        <v>41247</v>
+      </c>
+      <c r="F42" s="21">
+        <v>41248</v>
+      </c>
+      <c r="G42" s="21">
+        <v>41249</v>
+      </c>
+      <c r="H42" s="21"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="22"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="22"/>
+      <c r="W42" s="22"/>
+      <c r="X42" s="22"/>
+      <c r="Y42" s="22"/>
+      <c r="Z42" s="22"/>
+      <c r="AA42" s="22"/>
+      <c r="AB42" s="22"/>
+      <c r="AC42" s="22"/>
+      <c r="AD42" s="22"/>
+      <c r="AE42" s="22"/>
+      <c r="AF42" s="22"/>
+      <c r="AG42" s="22"/>
+      <c r="AH42" s="22"/>
+      <c r="AI42" s="22"/>
+      <c r="AJ42" s="22"/>
+      <c r="AK42" s="22"/>
+      <c r="AL42" s="22"/>
+      <c r="AM42" s="22"/>
+      <c r="AN42" s="22"/>
+      <c r="AO42" s="22"/>
+      <c r="AP42" s="22"/>
+      <c r="AQ42" s="22"/>
+      <c r="AR42" s="22"/>
+      <c r="AS42" s="22"/>
+      <c r="AT42" s="23"/>
+    </row>
+    <row r="43" spans="1:46" ht="51" customHeight="1">
       <c r="A43" s="72" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B43" s="73"/>
       <c r="C43" s="21">
-        <v>41245</v>
+        <v>41249</v>
       </c>
       <c r="D43" s="21">
-        <v>41246</v>
+        <v>41250</v>
       </c>
       <c r="E43" s="21">
-        <v>41247</v>
+        <v>41251</v>
       </c>
       <c r="F43" s="21">
-        <v>41248</v>
+        <v>41252</v>
       </c>
       <c r="G43" s="21">
-        <v>41249</v>
+        <v>41253</v>
       </c>
       <c r="H43" s="21"/>
       <c r="I43" s="22"/>
@@ -7796,144 +7820,84 @@
       <c r="AS43" s="22"/>
       <c r="AT43" s="23"/>
     </row>
-    <row r="44" spans="1:46" ht="51" customHeight="1">
-      <c r="A44" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="73"/>
-      <c r="C44" s="21">
-        <v>41249</v>
-      </c>
-      <c r="D44" s="21">
-        <v>41250</v>
-      </c>
-      <c r="E44" s="21">
-        <v>41251</v>
-      </c>
-      <c r="F44" s="21">
-        <v>41252</v>
-      </c>
-      <c r="G44" s="21">
-        <v>41253</v>
-      </c>
-      <c r="H44" s="21"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
-      <c r="R44" s="22"/>
-      <c r="S44" s="22"/>
-      <c r="T44" s="22"/>
-      <c r="U44" s="22"/>
-      <c r="V44" s="22"/>
-      <c r="W44" s="22"/>
-      <c r="X44" s="22"/>
-      <c r="Y44" s="22"/>
-      <c r="Z44" s="22"/>
-      <c r="AA44" s="22"/>
-      <c r="AB44" s="22"/>
-      <c r="AC44" s="22"/>
-      <c r="AD44" s="22"/>
-      <c r="AE44" s="22"/>
-      <c r="AF44" s="22"/>
-      <c r="AG44" s="22"/>
-      <c r="AH44" s="22"/>
-      <c r="AI44" s="22"/>
-      <c r="AJ44" s="22"/>
-      <c r="AK44" s="22"/>
-      <c r="AL44" s="22"/>
-      <c r="AM44" s="22"/>
-      <c r="AN44" s="22"/>
-      <c r="AO44" s="22"/>
-      <c r="AP44" s="22"/>
-      <c r="AQ44" s="22"/>
-      <c r="AR44" s="22"/>
-      <c r="AS44" s="22"/>
-      <c r="AT44" s="23"/>
-    </row>
-    <row r="45" spans="1:46" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A45" s="63" t="s">
+    <row r="44" spans="1:46" ht="35.25" customHeight="1" thickBot="1">
+      <c r="A44" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="64"/>
-      <c r="C45" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="19"/>
-      <c r="S45" s="19"/>
-      <c r="T45" s="19"/>
-      <c r="U45" s="19"/>
-      <c r="V45" s="19"/>
-      <c r="W45" s="19"/>
-      <c r="X45" s="19"/>
-      <c r="Y45" s="19"/>
-      <c r="Z45" s="19"/>
-      <c r="AA45" s="19"/>
-      <c r="AB45" s="19"/>
-      <c r="AC45" s="19"/>
-      <c r="AD45" s="19"/>
-      <c r="AE45" s="19"/>
-      <c r="AF45" s="19"/>
-      <c r="AG45" s="19"/>
-      <c r="AH45" s="19"/>
-      <c r="AI45" s="19"/>
-      <c r="AJ45" s="19"/>
-      <c r="AK45" s="19"/>
-      <c r="AL45" s="19"/>
-      <c r="AM45" s="19"/>
-      <c r="AN45" s="19"/>
-      <c r="AO45" s="19"/>
-      <c r="AP45" s="19"/>
-      <c r="AQ45" s="19"/>
-      <c r="AR45" s="19"/>
-      <c r="AS45" s="19"/>
-      <c r="AT45" s="20"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="19"/>
+      <c r="W44" s="19"/>
+      <c r="X44" s="19"/>
+      <c r="Y44" s="19"/>
+      <c r="Z44" s="19"/>
+      <c r="AA44" s="19"/>
+      <c r="AB44" s="19"/>
+      <c r="AC44" s="19"/>
+      <c r="AD44" s="19"/>
+      <c r="AE44" s="19"/>
+      <c r="AF44" s="19"/>
+      <c r="AG44" s="19"/>
+      <c r="AH44" s="19"/>
+      <c r="AI44" s="19"/>
+      <c r="AJ44" s="19"/>
+      <c r="AK44" s="19"/>
+      <c r="AL44" s="19"/>
+      <c r="AM44" s="19"/>
+      <c r="AN44" s="19"/>
+      <c r="AO44" s="19"/>
+      <c r="AP44" s="19"/>
+      <c r="AQ44" s="19"/>
+      <c r="AR44" s="19"/>
+      <c r="AS44" s="19"/>
+      <c r="AT44" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A3:A22"/>
-    <mergeCell ref="A23:A41"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A3:A21"/>
+    <mergeCell ref="A22:A40"/>
+    <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C45:D45 F45:AT45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C44:D44 F44:AT44">
       <formula1>"FAIL, OK"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:AT41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E44">
+      <formula1>"FAIL, OK, R-OK"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:AT40">
       <formula1>"O"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E45">
-      <formula1>"FAIL, OK, R-OK"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7948,14 +7912,14 @@
   </sheetPr>
   <dimension ref="A1:AT41"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="3.5703125" customWidth="1"/>
     <col min="7" max="7" width="3.7109375" customWidth="1"/>
     <col min="8" max="49" width="3.5703125" customWidth="1"/>
@@ -8015,10 +7979,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -8068,13 +8032,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -8122,10 +8086,10 @@
     <row r="4" spans="1:46">
       <c r="A4" s="66"/>
       <c r="B4" s="16" t="s">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -8174,11 +8138,11 @@
     <row r="5" spans="1:46">
       <c r="A5" s="66"/>
       <c r="B5" s="16" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -8852,7 +8816,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="C19" s="28"/>
       <c r="D19" s="29"/>
@@ -8902,10 +8866,10 @@
     <row r="20" spans="1:46">
       <c r="A20" s="66"/>
       <c r="B20" s="34" t="s">
-        <v>29</v>
+        <v>156</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -8954,11 +8918,11 @@
     <row r="21" spans="1:46">
       <c r="A21" s="66"/>
       <c r="B21" s="16" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -9777,10 +9741,10 @@
       </c>
       <c r="B38" s="71"/>
       <c r="C38" s="24" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
@@ -9939,10 +9903,10 @@
       </c>
       <c r="B41" s="64"/>
       <c r="C41" s="18" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
@@ -10005,7 +9969,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="58" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="56" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10016,8 +9980,8 @@
   </sheetPr>
   <dimension ref="A1:AT43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A26" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10083,25 +10047,25 @@
         <v>7</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F2" s="47" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="G2" s="47" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="H2" s="47" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="I2" s="47" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -10146,7 +10110,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="6"/>
@@ -10196,10 +10160,10 @@
     <row r="4" spans="1:46">
       <c r="A4" s="66"/>
       <c r="B4" s="34" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -10248,7 +10212,7 @@
     <row r="5" spans="1:46">
       <c r="A5" s="66"/>
       <c r="B5" s="16" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="8"/>
@@ -10297,27 +10261,27 @@
     </row>
     <row r="6" spans="1:46">
       <c r="A6" s="66"/>
-      <c r="B6" s="16" t="s">
-        <v>55</v>
+      <c r="B6" s="34" t="s">
+        <v>39</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -10360,7 +10324,7 @@
     <row r="7" spans="1:46">
       <c r="A7" s="66"/>
       <c r="B7" s="16" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="8"/>
@@ -10409,12 +10373,12 @@
     </row>
     <row r="8" spans="1:46">
       <c r="A8" s="66"/>
-      <c r="B8" s="16" t="s">
-        <v>57</v>
+      <c r="B8" s="34" t="s">
+        <v>41</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -10461,13 +10425,13 @@
     </row>
     <row r="9" spans="1:46">
       <c r="A9" s="66"/>
-      <c r="B9" s="16" t="s">
-        <v>58</v>
+      <c r="B9" s="34" t="s">
+        <v>42</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -10513,14 +10477,14 @@
     </row>
     <row r="10" spans="1:46">
       <c r="A10" s="66"/>
-      <c r="B10" s="16" t="s">
-        <v>59</v>
+      <c r="B10" s="34" t="s">
+        <v>43</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -10565,19 +10529,19 @@
     </row>
     <row r="11" spans="1:46">
       <c r="A11" s="66"/>
-      <c r="B11" s="16" t="s">
-        <v>60</v>
+      <c r="B11" s="34" t="s">
+        <v>44</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -10619,8 +10583,8 @@
     </row>
     <row r="12" spans="1:46">
       <c r="A12" s="66"/>
-      <c r="B12" s="16" t="s">
-        <v>62</v>
+      <c r="B12" s="34" t="s">
+        <v>46</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="8"/>
@@ -10628,7 +10592,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -10672,7 +10636,7 @@
     <row r="13" spans="1:46">
       <c r="A13" s="66"/>
       <c r="B13" s="16" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="8"/>
@@ -10721,12 +10685,12 @@
     </row>
     <row r="14" spans="1:46">
       <c r="A14" s="66"/>
-      <c r="B14" s="16" t="s">
-        <v>57</v>
+      <c r="B14" s="34" t="s">
+        <v>41</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -10773,13 +10737,13 @@
     </row>
     <row r="15" spans="1:46">
       <c r="A15" s="66"/>
-      <c r="B15" s="16" t="s">
-        <v>58</v>
+      <c r="B15" s="34" t="s">
+        <v>42</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -10825,14 +10789,14 @@
     </row>
     <row r="16" spans="1:46">
       <c r="A16" s="66"/>
-      <c r="B16" s="16" t="s">
-        <v>59</v>
+      <c r="B16" s="34" t="s">
+        <v>43</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -10877,15 +10841,15 @@
     </row>
     <row r="17" spans="1:46">
       <c r="A17" s="66"/>
-      <c r="B17" s="16" t="s">
-        <v>60</v>
+      <c r="B17" s="34" t="s">
+        <v>44</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -10929,8 +10893,8 @@
     </row>
     <row r="18" spans="1:46">
       <c r="A18" s="66"/>
-      <c r="B18" s="16" t="s">
-        <v>62</v>
+      <c r="B18" s="34" t="s">
+        <v>46</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="8"/>
@@ -10938,10 +10902,10 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -10984,7 +10948,7 @@
     <row r="19" spans="1:46">
       <c r="A19" s="67"/>
       <c r="B19" s="27" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="10"/>
@@ -11033,12 +10997,12 @@
     </row>
     <row r="20" spans="1:46">
       <c r="A20" s="67"/>
-      <c r="B20" s="27">
+      <c r="B20" s="35">
         <v>-1</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -11085,23 +11049,23 @@
     </row>
     <row r="21" spans="1:46">
       <c r="A21" s="67"/>
-      <c r="B21" s="27">
+      <c r="B21" s="35">
         <v>15</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
@@ -11143,14 +11107,14 @@
     </row>
     <row r="22" spans="1:46">
       <c r="A22" s="67"/>
-      <c r="B22" s="27">
+      <c r="B22" s="35">
         <v>101</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
@@ -11342,7 +11306,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="C26" s="28"/>
       <c r="D26" s="29"/>
@@ -11392,10 +11356,10 @@
     <row r="27" spans="1:46">
       <c r="A27" s="66"/>
       <c r="B27" s="37" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -11444,10 +11408,10 @@
     <row r="28" spans="1:46">
       <c r="A28" s="66"/>
       <c r="B28" s="38" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -11496,10 +11460,10 @@
     <row r="29" spans="1:46">
       <c r="A29" s="66"/>
       <c r="B29" s="39" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -11548,10 +11512,10 @@
     <row r="30" spans="1:46">
       <c r="A30" s="66"/>
       <c r="B30" s="37" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -11600,10 +11564,10 @@
     <row r="31" spans="1:46">
       <c r="A31" s="66"/>
       <c r="B31" s="37" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -11652,10 +11616,10 @@
     <row r="32" spans="1:46">
       <c r="A32" s="66"/>
       <c r="B32" s="39" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -11704,10 +11668,10 @@
     <row r="33" spans="1:46">
       <c r="A33" s="66"/>
       <c r="B33" s="39" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -11756,10 +11720,10 @@
     <row r="34" spans="1:46">
       <c r="A34" s="66"/>
       <c r="B34" s="39" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -11808,10 +11772,10 @@
     <row r="35" spans="1:46">
       <c r="A35" s="66"/>
       <c r="B35" s="37" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -11860,15 +11824,15 @@
     <row r="36" spans="1:46">
       <c r="A36" s="66"/>
       <c r="B36" s="41" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C36" s="36"/>
       <c r="D36" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -11914,23 +11878,23 @@
     <row r="37" spans="1:46">
       <c r="A37" s="66"/>
       <c r="B37" s="34" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
@@ -11974,7 +11938,7 @@
     <row r="38" spans="1:46">
       <c r="A38" s="66"/>
       <c r="B38" s="16" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="8"/>
@@ -11983,7 +11947,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
@@ -12077,25 +12041,25 @@
       </c>
       <c r="B40" s="71"/>
       <c r="C40" s="24" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="J40" s="25"/>
       <c r="K40" s="25"/>
@@ -12269,25 +12233,25 @@
       </c>
       <c r="B43" s="64"/>
       <c r="C43" s="18" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="I43" s="19" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="J43" s="19"/>
       <c r="K43" s="19"/>
@@ -12359,14 +12323,14 @@
   </sheetPr>
   <dimension ref="A1:AT43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A26" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="3.5703125" customWidth="1"/>
     <col min="7" max="7" width="3.7109375" customWidth="1"/>
     <col min="8" max="49" width="3.5703125" customWidth="1"/>
@@ -12426,25 +12390,25 @@
         <v>7</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F2" s="47" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="G2" s="47" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="H2" s="47" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="I2" s="47" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -12489,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="6"/>
@@ -12539,10 +12503,10 @@
     <row r="4" spans="1:46">
       <c r="A4" s="66"/>
       <c r="B4" s="34" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -12591,7 +12555,7 @@
     <row r="5" spans="1:46">
       <c r="A5" s="66"/>
       <c r="B5" s="16" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="8"/>
@@ -12641,26 +12605,26 @@
     <row r="6" spans="1:46">
       <c r="A6" s="66"/>
       <c r="B6" s="16" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -12703,7 +12667,7 @@
     <row r="7" spans="1:46">
       <c r="A7" s="66"/>
       <c r="B7" s="16" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="8"/>
@@ -12753,11 +12717,11 @@
     <row r="8" spans="1:46">
       <c r="A8" s="66"/>
       <c r="B8" s="16" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -12805,12 +12769,12 @@
     <row r="9" spans="1:46">
       <c r="A9" s="66"/>
       <c r="B9" s="16" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -12857,13 +12821,13 @@
     <row r="10" spans="1:46">
       <c r="A10" s="66"/>
       <c r="B10" s="16" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -12909,18 +12873,18 @@
     <row r="11" spans="1:46">
       <c r="A11" s="66"/>
       <c r="B11" s="16" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -12963,7 +12927,7 @@
     <row r="12" spans="1:46">
       <c r="A12" s="66"/>
       <c r="B12" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="8"/>
@@ -12971,7 +12935,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -13015,7 +12979,7 @@
     <row r="13" spans="1:46">
       <c r="A13" s="66"/>
       <c r="B13" s="16" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="8"/>
@@ -13065,11 +13029,11 @@
     <row r="14" spans="1:46">
       <c r="A14" s="66"/>
       <c r="B14" s="16" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -13117,12 +13081,12 @@
     <row r="15" spans="1:46">
       <c r="A15" s="66"/>
       <c r="B15" s="16" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -13169,13 +13133,13 @@
     <row r="16" spans="1:46">
       <c r="A16" s="66"/>
       <c r="B16" s="16" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -13221,14 +13185,14 @@
     <row r="17" spans="1:46">
       <c r="A17" s="66"/>
       <c r="B17" s="16" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -13273,7 +13237,7 @@
     <row r="18" spans="1:46">
       <c r="A18" s="66"/>
       <c r="B18" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="8"/>
@@ -13281,10 +13245,10 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -13327,7 +13291,7 @@
     <row r="19" spans="1:46">
       <c r="A19" s="67"/>
       <c r="B19" s="27" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="10"/>
@@ -13381,7 +13345,7 @@
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -13434,17 +13398,17 @@
       <c r="C21" s="14"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
@@ -13493,7 +13457,7 @@
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
@@ -13685,7 +13649,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="C26" s="28"/>
       <c r="D26" s="29"/>
@@ -13735,10 +13699,10 @@
     <row r="27" spans="1:46">
       <c r="A27" s="66"/>
       <c r="B27" s="37" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -13787,10 +13751,10 @@
     <row r="28" spans="1:46">
       <c r="A28" s="66"/>
       <c r="B28" s="38" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -13839,10 +13803,10 @@
     <row r="29" spans="1:46">
       <c r="A29" s="66"/>
       <c r="B29" s="39" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -13891,10 +13855,10 @@
     <row r="30" spans="1:46">
       <c r="A30" s="66"/>
       <c r="B30" s="37" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -13943,10 +13907,10 @@
     <row r="31" spans="1:46">
       <c r="A31" s="66"/>
       <c r="B31" s="40" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -13995,10 +13959,10 @@
     <row r="32" spans="1:46">
       <c r="A32" s="66"/>
       <c r="B32" s="39" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -14047,10 +14011,10 @@
     <row r="33" spans="1:46">
       <c r="A33" s="66"/>
       <c r="B33" s="39" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -14099,10 +14063,10 @@
     <row r="34" spans="1:46">
       <c r="A34" s="66"/>
       <c r="B34" s="39" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -14151,10 +14115,10 @@
     <row r="35" spans="1:46">
       <c r="A35" s="66"/>
       <c r="B35" s="37" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -14203,15 +14167,15 @@
     <row r="36" spans="1:46">
       <c r="A36" s="66"/>
       <c r="B36" s="41" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C36" s="36"/>
       <c r="D36" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -14257,23 +14221,23 @@
     <row r="37" spans="1:46">
       <c r="A37" s="66"/>
       <c r="B37" s="34" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
@@ -14317,7 +14281,7 @@
     <row r="38" spans="1:46">
       <c r="A38" s="66"/>
       <c r="B38" s="16" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="8"/>
@@ -14326,7 +14290,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
@@ -14420,25 +14384,25 @@
       </c>
       <c r="B40" s="71"/>
       <c r="C40" s="24" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="J40" s="25"/>
       <c r="K40" s="25"/>
@@ -14612,25 +14576,25 @@
       </c>
       <c r="B43" s="64"/>
       <c r="C43" s="18" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="I43" s="19" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="J43" s="19"/>
       <c r="K43" s="19"/>
@@ -14691,7 +14655,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="56" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="54" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14702,8 +14666,8 @@
   </sheetPr>
   <dimension ref="A1:AT36"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A30" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="S52" sqref="S52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14769,10 +14733,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="E2" s="59"/>
       <c r="F2" s="3"/>
@@ -14822,13 +14786,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -14876,10 +14840,10 @@
     <row r="4" spans="1:46">
       <c r="A4" s="66"/>
       <c r="B4" s="16" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -14928,11 +14892,11 @@
     <row r="5" spans="1:46">
       <c r="A5" s="66"/>
       <c r="B5" s="16" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -15606,7 +15570,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C19" s="28"/>
       <c r="D19" s="29"/>
@@ -15656,10 +15620,10 @@
     <row r="20" spans="1:46">
       <c r="A20" s="66"/>
       <c r="B20" s="34" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -15708,11 +15672,11 @@
     <row r="21" spans="1:46">
       <c r="A21" s="66"/>
       <c r="B21" s="16" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -16291,10 +16255,10 @@
       </c>
       <c r="B33" s="71"/>
       <c r="C33" s="24" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
@@ -16453,10 +16417,10 @@
       </c>
       <c r="B36" s="64"/>
       <c r="C36" s="18" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
@@ -16597,19 +16561,19 @@
         <v>7</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F2" s="47" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="G2" s="47" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -16656,7 +16620,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="6"/>
@@ -16706,13 +16670,13 @@
     <row r="4" spans="1:46">
       <c r="A4" s="66"/>
       <c r="B4" s="56" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -16760,15 +16724,15 @@
     <row r="5" spans="1:46">
       <c r="A5" s="66"/>
       <c r="B5" s="56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -16814,7 +16778,7 @@
     <row r="6" spans="1:46">
       <c r="A6" s="66"/>
       <c r="B6" s="34" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="8"/>
@@ -16864,14 +16828,14 @@
     <row r="7" spans="1:46">
       <c r="A7" s="66"/>
       <c r="B7" s="34" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -16916,7 +16880,7 @@
     <row r="8" spans="1:46">
       <c r="A8" s="66"/>
       <c r="B8" s="34" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="8"/>
@@ -17014,7 +16978,7 @@
     <row r="10" spans="1:46">
       <c r="A10" s="66"/>
       <c r="B10" s="51" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="8"/>
@@ -17064,14 +17028,14 @@
     <row r="11" spans="1:46">
       <c r="A11" s="66"/>
       <c r="B11" s="34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -17118,11 +17082,11 @@
     <row r="12" spans="1:46">
       <c r="A12" s="66"/>
       <c r="B12" s="34" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -17170,7 +17134,7 @@
     <row r="13" spans="1:46">
       <c r="A13" s="66"/>
       <c r="B13" s="34" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="8"/>
@@ -17220,14 +17184,14 @@
     <row r="14" spans="1:46">
       <c r="A14" s="66"/>
       <c r="B14" s="34" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -17272,13 +17236,13 @@
     <row r="15" spans="1:46">
       <c r="A15" s="66"/>
       <c r="B15" s="34" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -17324,22 +17288,22 @@
     <row r="16" spans="1:46">
       <c r="A16" s="66"/>
       <c r="B16" s="51" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -17482,7 +17446,7 @@
     <row r="19" spans="1:46">
       <c r="A19" s="66"/>
       <c r="B19" s="51" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="8"/>
@@ -17532,14 +17496,14 @@
     <row r="20" spans="1:46">
       <c r="A20" s="66"/>
       <c r="B20" s="34" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -17586,11 +17550,11 @@
     <row r="21" spans="1:46" ht="30">
       <c r="A21" s="66"/>
       <c r="B21" s="58" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -17638,11 +17602,11 @@
     <row r="22" spans="1:46">
       <c r="A22" s="66"/>
       <c r="B22" s="34" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
@@ -17690,15 +17654,15 @@
     <row r="23" spans="1:46">
       <c r="A23" s="66"/>
       <c r="B23" s="34" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -17744,14 +17708,14 @@
     <row r="24" spans="1:46">
       <c r="A24" s="66"/>
       <c r="B24" s="34" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -18087,19 +18051,19 @@
       </c>
       <c r="B31" s="71"/>
       <c r="C31" s="24" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="H31" s="25"/>
       <c r="I31" s="25"/>
@@ -18267,19 +18231,19 @@
       </c>
       <c r="B34" s="64"/>
       <c r="C34" s="18" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -18350,7 +18314,7 @@
   </sheetPr>
   <dimension ref="A1:AS63"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A42" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A42" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="A62" sqref="A62:B62"/>
     </sheetView>
   </sheetViews>
@@ -18414,19 +18378,19 @@
         <v>7</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F2" s="47" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="G2" s="47" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -18472,7 +18436,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="6"/>
@@ -18521,16 +18485,16 @@
     <row r="4" spans="1:45">
       <c r="A4" s="75"/>
       <c r="B4" s="56" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -18574,10 +18538,10 @@
     <row r="5" spans="1:45">
       <c r="A5" s="75"/>
       <c r="B5" s="56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -18625,7 +18589,7 @@
     <row r="6" spans="1:45">
       <c r="A6" s="75"/>
       <c r="B6" s="34" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="8"/>
@@ -18674,13 +18638,13 @@
     <row r="7" spans="1:45">
       <c r="A7" s="75"/>
       <c r="B7" s="34" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -18725,11 +18689,11 @@
     <row r="8" spans="1:45">
       <c r="A8" s="75"/>
       <c r="B8" s="34" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -18776,7 +18740,7 @@
     <row r="9" spans="1:45">
       <c r="A9" s="75"/>
       <c r="B9" s="51" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="8"/>
@@ -18825,10 +18789,10 @@
     <row r="10" spans="1:45">
       <c r="A10" s="75"/>
       <c r="B10" s="56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -18876,14 +18840,14 @@
     <row r="11" spans="1:45">
       <c r="A11" s="75"/>
       <c r="B11" s="34" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -18929,13 +18893,13 @@
     <row r="12" spans="1:45">
       <c r="A12" s="75"/>
       <c r="B12" s="34" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -18980,14 +18944,14 @@
     <row r="13" spans="1:45">
       <c r="A13" s="75"/>
       <c r="B13" s="57" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -19031,7 +18995,7 @@
     <row r="14" spans="1:45">
       <c r="A14" s="75"/>
       <c r="B14" s="51" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="8"/>
@@ -19080,10 +19044,10 @@
     <row r="15" spans="1:45">
       <c r="A15" s="75"/>
       <c r="B15" s="34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -19131,11 +19095,11 @@
     <row r="16" spans="1:45">
       <c r="A16" s="75"/>
       <c r="B16" s="34" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -19182,7 +19146,7 @@
     <row r="17" spans="1:45">
       <c r="A17" s="75"/>
       <c r="B17" s="34" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="8"/>
@@ -19231,18 +19195,18 @@
     <row r="18" spans="1:45">
       <c r="A18" s="75"/>
       <c r="B18" s="34" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -19286,7 +19250,7 @@
     <row r="19" spans="1:45">
       <c r="A19" s="75"/>
       <c r="B19" s="34" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="8"/>
@@ -19335,7 +19299,7 @@
     <row r="20" spans="1:45">
       <c r="A20" s="75"/>
       <c r="B20" s="51" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="8"/>
@@ -19384,10 +19348,10 @@
     <row r="21" spans="1:45">
       <c r="A21" s="75"/>
       <c r="B21" s="55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -19435,7 +19399,7 @@
     <row r="22" spans="1:45">
       <c r="A22" s="75"/>
       <c r="B22" s="55" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C22" s="36"/>
       <c r="D22" s="8"/>
@@ -19484,18 +19448,18 @@
     <row r="23" spans="1:45">
       <c r="A23" s="75"/>
       <c r="B23" s="34" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C23" s="36"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -19539,7 +19503,7 @@
     <row r="24" spans="1:45">
       <c r="A24" s="75"/>
       <c r="B24" s="55" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C24" s="36"/>
       <c r="D24" s="8"/>
@@ -19588,11 +19552,11 @@
     <row r="25" spans="1:45">
       <c r="A25" s="75"/>
       <c r="B25" s="34" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -19639,7 +19603,7 @@
     <row r="26" spans="1:45">
       <c r="A26" s="75"/>
       <c r="B26" s="51" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C26" s="36"/>
       <c r="D26" s="8"/>
@@ -19688,22 +19652,22 @@
     <row r="27" spans="1:45">
       <c r="A27" s="75"/>
       <c r="B27" s="55" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -19747,7 +19711,7 @@
     <row r="28" spans="1:45">
       <c r="A28" s="75"/>
       <c r="B28" s="34" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C28" s="36"/>
       <c r="D28" s="8"/>
@@ -19796,7 +19760,7 @@
     <row r="29" spans="1:45">
       <c r="A29" s="75"/>
       <c r="B29" s="51" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C29" s="36"/>
       <c r="D29" s="8"/>
@@ -19845,10 +19809,10 @@
     <row r="30" spans="1:45">
       <c r="A30" s="75"/>
       <c r="B30" s="34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -19896,14 +19860,14 @@
     <row r="31" spans="1:45">
       <c r="A31" s="75"/>
       <c r="B31" s="34" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C31" s="36"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -19947,15 +19911,15 @@
     <row r="32" spans="1:45">
       <c r="A32" s="75"/>
       <c r="B32" s="34" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C32" s="36"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -20000,11 +19964,11 @@
     <row r="33" spans="1:45">
       <c r="A33" s="75"/>
       <c r="B33" s="34" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C33" s="36"/>
       <c r="D33" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -20051,7 +20015,7 @@
     <row r="34" spans="1:45">
       <c r="A34" s="75"/>
       <c r="B34" s="51" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C34" s="36"/>
       <c r="D34" s="8"/>
@@ -20100,10 +20064,10 @@
     <row r="35" spans="1:45">
       <c r="A35" s="75"/>
       <c r="B35" s="34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -20151,18 +20115,18 @@
     <row r="36" spans="1:45">
       <c r="A36" s="75"/>
       <c r="B36" s="34" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C36" s="36"/>
       <c r="D36" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
@@ -20206,13 +20170,13 @@
     <row r="37" spans="1:45">
       <c r="A37" s="75"/>
       <c r="B37" s="34" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C37" s="36"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
@@ -20257,7 +20221,7 @@
     <row r="38" spans="1:45">
       <c r="A38" s="75"/>
       <c r="B38" s="34" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C38" s="36"/>
       <c r="D38" s="8"/>
@@ -20306,7 +20270,7 @@
     <row r="39" spans="1:45">
       <c r="A39" s="75"/>
       <c r="B39" s="51" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C39" s="36"/>
       <c r="D39" s="8"/>
@@ -20355,10 +20319,10 @@
     <row r="40" spans="1:45">
       <c r="A40" s="75"/>
       <c r="B40" s="34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C40" s="36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -20406,7 +20370,7 @@
     <row r="41" spans="1:45">
       <c r="A41" s="75"/>
       <c r="B41" s="34" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C41" s="36"/>
       <c r="D41" s="8"/>
@@ -20455,17 +20419,17 @@
     <row r="42" spans="1:45">
       <c r="A42" s="75"/>
       <c r="B42" s="34" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C42" s="36"/>
       <c r="D42" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
@@ -20510,14 +20474,14 @@
     <row r="43" spans="1:45">
       <c r="A43" s="75"/>
       <c r="B43" s="34" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C43" s="36"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
@@ -20561,22 +20525,22 @@
     <row r="44" spans="1:45">
       <c r="A44" s="75"/>
       <c r="B44" s="51" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C44" s="36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
@@ -20716,7 +20680,7 @@
         <v>1</v>
       </c>
       <c r="B47" s="50" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C47" s="28"/>
       <c r="D47" s="29"/>
@@ -20765,10 +20729,10 @@
     <row r="48" spans="1:45">
       <c r="A48" s="66"/>
       <c r="B48" s="55" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -20816,10 +20780,10 @@
     <row r="49" spans="1:45">
       <c r="A49" s="66"/>
       <c r="B49" s="34" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -20867,10 +20831,10 @@
     <row r="50" spans="1:45">
       <c r="A50" s="66"/>
       <c r="B50" s="58" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -20918,10 +20882,10 @@
     <row r="51" spans="1:45">
       <c r="A51" s="66"/>
       <c r="B51" s="34" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -20969,10 +20933,10 @@
     <row r="52" spans="1:45">
       <c r="A52" s="66"/>
       <c r="B52" s="34" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -21020,10 +20984,10 @@
     <row r="53" spans="1:45">
       <c r="A53" s="66"/>
       <c r="B53" s="34" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -21071,11 +21035,11 @@
     <row r="54" spans="1:45">
       <c r="A54" s="66"/>
       <c r="B54" s="34" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
@@ -21122,15 +21086,15 @@
     <row r="55" spans="1:45" ht="30">
       <c r="A55" s="66"/>
       <c r="B55" s="58" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
@@ -21175,15 +21139,15 @@
     <row r="56" spans="1:45">
       <c r="A56" s="66"/>
       <c r="B56" s="34" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
@@ -21228,11 +21192,11 @@
     <row r="57" spans="1:45">
       <c r="A57" s="66"/>
       <c r="B57" s="34" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
@@ -21279,14 +21243,14 @@
     <row r="58" spans="1:45">
       <c r="A58" s="66"/>
       <c r="B58" s="34" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
@@ -21380,19 +21344,19 @@
       </c>
       <c r="B60" s="71"/>
       <c r="C60" s="24" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="E60" s="24" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="F60" s="24" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="H60" s="25"/>
       <c r="I60" s="25"/>
@@ -21557,19 +21521,19 @@
       </c>
       <c r="B63" s="64"/>
       <c r="C63" s="18" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
